--- a/C6-1.xlsx
+++ b/C6-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16752" uniqueCount="7822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18444" uniqueCount="8549">
   <si>
     <t>dInstal</t>
   </si>
@@ -23478,6 +23478,2187 @@
   </si>
   <si>
     <t>2.5800000000000267</t>
+  </si>
+  <si>
+    <t>2023-07-01 01:00:12</t>
+  </si>
+  <si>
+    <t>6.170000000000002</t>
+  </si>
+  <si>
+    <t>2023-07-01 02:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-01 03:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-01 04:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-01 05:00:11</t>
+  </si>
+  <si>
+    <t>12.110000000000028</t>
+  </si>
+  <si>
+    <t>2023-07-01 06:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-01 07:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-01 09:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-01 10:00:12</t>
+  </si>
+  <si>
+    <t>10.700000000000003</t>
+  </si>
+  <si>
+    <t>2023-07-01 12:00:12</t>
+  </si>
+  <si>
+    <t>-2.029999999999987</t>
+  </si>
+  <si>
+    <t>2023-07-01 13:00:11</t>
+  </si>
+  <si>
+    <t>-3.6099999999999994</t>
+  </si>
+  <si>
+    <t>2023-07-01 15:00:12</t>
+  </si>
+  <si>
+    <t>1.8000000000000256</t>
+  </si>
+  <si>
+    <t>2023-07-01 17:00:12</t>
+  </si>
+  <si>
+    <t>-5.289999999999978</t>
+  </si>
+  <si>
+    <t>2023-07-01 18:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-01 19:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-01 21:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-01 22:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-01 23:00:11</t>
+  </si>
+  <si>
+    <t>-6.259999999999977</t>
+  </si>
+  <si>
+    <t>2023-07-02 00:00:11</t>
+  </si>
+  <si>
+    <t>-5.979999999999976</t>
+  </si>
+  <si>
+    <t>2023-07-02 01:00:10</t>
+  </si>
+  <si>
+    <t>-5.859999999999971</t>
+  </si>
+  <si>
+    <t>2023-07-02 02:00:12</t>
+  </si>
+  <si>
+    <t>-3.299999999999997</t>
+  </si>
+  <si>
+    <t>2023-07-02 03:00:12</t>
+  </si>
+  <si>
+    <t>0.15000000000004832</t>
+  </si>
+  <si>
+    <t>2023-07-02 04:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-02 05:00:11</t>
+  </si>
+  <si>
+    <t>4.540000000000063</t>
+  </si>
+  <si>
+    <t>2023-07-02 06:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-02 07:00:11</t>
+  </si>
+  <si>
+    <t>7.999999999999986</t>
+  </si>
+  <si>
+    <t>2023-07-02 08:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-02 09:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-02 10:00:11</t>
+  </si>
+  <si>
+    <t>1.100000000000037</t>
+  </si>
+  <si>
+    <t>2023-07-02 11:00:12</t>
+  </si>
+  <si>
+    <t>-6.219999999999956</t>
+  </si>
+  <si>
+    <t>2023-07-02 12:00:12</t>
+  </si>
+  <si>
+    <t>-11.739999999999938</t>
+  </si>
+  <si>
+    <t>2023-07-02 14:00:12</t>
+  </si>
+  <si>
+    <t>-14.219999999999985</t>
+  </si>
+  <si>
+    <t>2023-07-02 16:00:13</t>
+  </si>
+  <si>
+    <t>-11.479999999999976</t>
+  </si>
+  <si>
+    <t>2023-07-02 18:00:11</t>
+  </si>
+  <si>
+    <t>-6.609999999999943</t>
+  </si>
+  <si>
+    <t>2023-07-02 20:00:12</t>
+  </si>
+  <si>
+    <t>-3.119999999999962</t>
+  </si>
+  <si>
+    <t>2023-07-02 22:00:11</t>
+  </si>
+  <si>
+    <t>-0.7499999999999574</t>
+  </si>
+  <si>
+    <t>2023-07-02 23:00:12</t>
+  </si>
+  <si>
+    <t>-6.589999999999961</t>
+  </si>
+  <si>
+    <t>2023-07-03 00:00:12</t>
+  </si>
+  <si>
+    <t>-2.679999999999964</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-03 02:00:12</t>
+  </si>
+  <si>
+    <t>35.88</t>
+  </si>
+  <si>
+    <t>-2.5099999999999767</t>
+  </si>
+  <si>
+    <t>2023-07-03 04:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-03 05:00:13</t>
+  </si>
+  <si>
+    <t>35.63</t>
+  </si>
+  <si>
+    <t>4.710000000000051</t>
+  </si>
+  <si>
+    <t>2023-07-03 06:00:13</t>
+  </si>
+  <si>
+    <t>35.50</t>
+  </si>
+  <si>
+    <t>2023-07-03 07:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-03 08:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-03 09:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-03 10:00:11</t>
+  </si>
+  <si>
+    <t>1.0700000000000358</t>
+  </si>
+  <si>
+    <t>2023-07-03 11:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-03 12:01:18</t>
+  </si>
+  <si>
+    <t>-0.6999999999999744</t>
+  </si>
+  <si>
+    <t>2023-07-03 14:00:12</t>
+  </si>
+  <si>
+    <t>-14.919999999999973</t>
+  </si>
+  <si>
+    <t>2023-07-03 15:00:12</t>
+  </si>
+  <si>
+    <t>-8.760000000000005</t>
+  </si>
+  <si>
+    <t>2023-07-03 16:00:11</t>
+  </si>
+  <si>
+    <t>35.31</t>
+  </si>
+  <si>
+    <t>-6.879999999999981</t>
+  </si>
+  <si>
+    <t>2023-07-03 18:00:12</t>
+  </si>
+  <si>
+    <t>-9.369999999999962</t>
+  </si>
+  <si>
+    <t>2023-07-03 19:00:11</t>
+  </si>
+  <si>
+    <t>-5.729999999999976</t>
+  </si>
+  <si>
+    <t>2023-07-03 20:00:13</t>
+  </si>
+  <si>
+    <t>36.06</t>
+  </si>
+  <si>
+    <t>-8.33999999999996</t>
+  </si>
+  <si>
+    <t>2023-07-03 21:00:11</t>
+  </si>
+  <si>
+    <t>-7.659999999999982</t>
+  </si>
+  <si>
+    <t>2023-07-04 00:00:11</t>
+  </si>
+  <si>
+    <t>-5.339999999999989</t>
+  </si>
+  <si>
+    <t>2023-07-04 01:00:12</t>
+  </si>
+  <si>
+    <t>-3.1699999999999733</t>
+  </si>
+  <si>
+    <t>2023-07-04 03:00:12</t>
+  </si>
+  <si>
+    <t>-3.9299999999999926</t>
+  </si>
+  <si>
+    <t>2023-07-04 05:00:11</t>
+  </si>
+  <si>
+    <t>3.080000000000055</t>
+  </si>
+  <si>
+    <t>2023-07-04 06:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-04 07:00:11</t>
+  </si>
+  <si>
+    <t>2.8700000000000188</t>
+  </si>
+  <si>
+    <t>2023-07-04 08:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-04 09:00:11</t>
+  </si>
+  <si>
+    <t>0.27000000000002444</t>
+  </si>
+  <si>
+    <t>2023-07-04 10:00:12</t>
+  </si>
+  <si>
+    <t>-0.7799999999999869</t>
+  </si>
+  <si>
+    <t>2023-07-04 11:00:12</t>
+  </si>
+  <si>
+    <t>-0.9999999999999574</t>
+  </si>
+  <si>
+    <t>2023-07-04 14:00:11</t>
+  </si>
+  <si>
+    <t>-8.569999999999979</t>
+  </si>
+  <si>
+    <t>2023-07-04 16:02:29</t>
+  </si>
+  <si>
+    <t>-7.979999999999947</t>
+  </si>
+  <si>
+    <t>2023-07-04 18:00:11</t>
+  </si>
+  <si>
+    <t>-9.019999999999968</t>
+  </si>
+  <si>
+    <t>2023-07-04 19:00:12</t>
+  </si>
+  <si>
+    <t>36.94</t>
+  </si>
+  <si>
+    <t>-8.34999999999998</t>
+  </si>
+  <si>
+    <t>2023-07-04 20:00:12</t>
+  </si>
+  <si>
+    <t>37.13</t>
+  </si>
+  <si>
+    <t>-4.789999999999978</t>
+  </si>
+  <si>
+    <t>2023-07-04 22:00:11</t>
+  </si>
+  <si>
+    <t>-0.10999999999999943</t>
+  </si>
+  <si>
+    <t>2023-07-05 00:00:12</t>
+  </si>
+  <si>
+    <t>37.50</t>
+  </si>
+  <si>
+    <t>-3.159999999999954</t>
+  </si>
+  <si>
+    <t>2023-07-05 02:00:13</t>
+  </si>
+  <si>
+    <t>-1.0199999999999392</t>
+  </si>
+  <si>
+    <t>2023-07-05 04:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-05 06:00:38</t>
+  </si>
+  <si>
+    <t>37.19</t>
+  </si>
+  <si>
+    <t>5.3100000000000165</t>
+  </si>
+  <si>
+    <t>2023-07-05 07:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-05 08:00:12</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>2023-07-05 10:03:00</t>
+  </si>
+  <si>
+    <t>9.100000000000065</t>
+  </si>
+  <si>
+    <t>2023-07-05 11:00:12</t>
+  </si>
+  <si>
+    <t>11.710000000000022</t>
+  </si>
+  <si>
+    <t>2023-07-05 12:00:12</t>
+  </si>
+  <si>
+    <t>8.799999999999997</t>
+  </si>
+  <si>
+    <t>2023-07-05 14:00:09</t>
+  </si>
+  <si>
+    <t>2.660000000000039</t>
+  </si>
+  <si>
+    <t>2023-07-05 16:00:17</t>
+  </si>
+  <si>
+    <t>8.330000000000027</t>
+  </si>
+  <si>
+    <t>2023-07-05 17:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-05 18:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-05 19:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-05 20:00:12</t>
+  </si>
+  <si>
+    <t>13.250000000000014</t>
+  </si>
+  <si>
+    <t>2023-07-05 21:00:11</t>
+  </si>
+  <si>
+    <t>13.83999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-05 22:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-06 00:00:12</t>
+  </si>
+  <si>
+    <t>7.579999999999998</t>
+  </si>
+  <si>
+    <t>2023-07-06 02:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-06 04:00:13</t>
+  </si>
+  <si>
+    <t>2023-07-06 05:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-06 07:00:12</t>
+  </si>
+  <si>
+    <t>-0.8499999999999517</t>
+  </si>
+  <si>
+    <t>2023-07-06 08:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-06 09:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-06 10:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-06 11:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-06 12:00:11</t>
+  </si>
+  <si>
+    <t>-8.139999999999944</t>
+  </si>
+  <si>
+    <t>2023-07-06 13:00:43</t>
+  </si>
+  <si>
+    <t>-5.379999999999981</t>
+  </si>
+  <si>
+    <t>2023-07-06 15:00:11</t>
+  </si>
+  <si>
+    <t>-4.809999999999988</t>
+  </si>
+  <si>
+    <t>2023-07-06 16:00:12</t>
+  </si>
+  <si>
+    <t>-10.349999999999952</t>
+  </si>
+  <si>
+    <t>2023-07-06 17:00:45</t>
+  </si>
+  <si>
+    <t>3.690000000000012</t>
+  </si>
+  <si>
+    <t>2023-07-06 20:00:13</t>
+  </si>
+  <si>
+    <t>-9.09999999999998</t>
+  </si>
+  <si>
+    <t>2023-07-06 23:00:10</t>
+  </si>
+  <si>
+    <t>-9.269999999999996</t>
+  </si>
+  <si>
+    <t>2023-07-07 02:00:11</t>
+  </si>
+  <si>
+    <t>-5.629999999999981</t>
+  </si>
+  <si>
+    <t>2023-07-07 05:00:11</t>
+  </si>
+  <si>
+    <t>1.5500000000000256</t>
+  </si>
+  <si>
+    <t>2023-07-07 08:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-07 10:00:10</t>
+  </si>
+  <si>
+    <t>-18.539999999999978</t>
+  </si>
+  <si>
+    <t>2023-07-07 13:00:12</t>
+  </si>
+  <si>
+    <t>-7.59999999999998</t>
+  </si>
+  <si>
+    <t>2023-07-07 15:00:10</t>
+  </si>
+  <si>
+    <t>-0.7099999999999937</t>
+  </si>
+  <si>
+    <t>2023-07-07 18:00:11</t>
+  </si>
+  <si>
+    <t>-8.280000000000015</t>
+  </si>
+  <si>
+    <t>2023-07-07 23:00:10</t>
+  </si>
+  <si>
+    <t>-5.230000000000004</t>
+  </si>
+  <si>
+    <t>2023-07-08 02:00:12</t>
+  </si>
+  <si>
+    <t>-1.5799999999999699</t>
+  </si>
+  <si>
+    <t>2023-07-08 04:00:10</t>
+  </si>
+  <si>
+    <t>2023-07-08 07:00:12</t>
+  </si>
+  <si>
+    <t>37.31</t>
+  </si>
+  <si>
+    <t>-7.379999999999981</t>
+  </si>
+  <si>
+    <t>2023-07-08 11:00:12</t>
+  </si>
+  <si>
+    <t>-4.469999999999956</t>
+  </si>
+  <si>
+    <t>2023-07-08 14:00:12</t>
+  </si>
+  <si>
+    <t>-2.779999999999987</t>
+  </si>
+  <si>
+    <t>2023-07-08 16:00:11</t>
+  </si>
+  <si>
+    <t>-1.2399999999999665</t>
+  </si>
+  <si>
+    <t>2023-07-08 18:00:11</t>
+  </si>
+  <si>
+    <t>-5.209999999999965</t>
+  </si>
+  <si>
+    <t>2023-07-08 21:00:11</t>
+  </si>
+  <si>
+    <t>37.63</t>
+  </si>
+  <si>
+    <t>-3.9899999999999665</t>
+  </si>
+  <si>
+    <t>2023-07-08 23:00:11</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>-3.8499999999999517</t>
+  </si>
+  <si>
+    <t>2023-07-09 02:00:12</t>
+  </si>
+  <si>
+    <t>-0.5700000000000074</t>
+  </si>
+  <si>
+    <t>2023-07-09 05:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-09 08:00:11</t>
+  </si>
+  <si>
+    <t>8.560000000000045</t>
+  </si>
+  <si>
+    <t>2023-07-09 11:00:12</t>
+  </si>
+  <si>
+    <t>37.69</t>
+  </si>
+  <si>
+    <t>-0.23000000000000398</t>
+  </si>
+  <si>
+    <t>2023-07-09 14:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-09 17:00:12</t>
+  </si>
+  <si>
+    <t>-1.8899999999999721</t>
+  </si>
+  <si>
+    <t>2023-07-09 20:00:11</t>
+  </si>
+  <si>
+    <t>37.56</t>
+  </si>
+  <si>
+    <t>0.18000000000004945</t>
+  </si>
+  <si>
+    <t>2023-07-09 23:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-10 02:00:10</t>
+  </si>
+  <si>
+    <t>2023-07-10 05:00:12</t>
+  </si>
+  <si>
+    <t>-0.38000000000000966</t>
+  </si>
+  <si>
+    <t>2023-07-10 08:00:10</t>
+  </si>
+  <si>
+    <t>2023-07-10 11:00:09</t>
+  </si>
+  <si>
+    <t>2023-07-10 14:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-10 17:00:45</t>
+  </si>
+  <si>
+    <t>2023-07-10 20:00:11</t>
+  </si>
+  <si>
+    <t>-5.499999999999986</t>
+  </si>
+  <si>
+    <t>2023-07-10 23:00:11</t>
+  </si>
+  <si>
+    <t>-2.6699999999999733</t>
+  </si>
+  <si>
+    <t>2023-07-11 02:00:09</t>
+  </si>
+  <si>
+    <t>0.7400000000000233</t>
+  </si>
+  <si>
+    <t>2023-07-11 05:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-11 08:00:13</t>
+  </si>
+  <si>
+    <t>-18.83999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-11 11:00:11</t>
+  </si>
+  <si>
+    <t>-2.1899999999999835</t>
+  </si>
+  <si>
+    <t>2023-07-11 14:00:11</t>
+  </si>
+  <si>
+    <t>1.7399999999999949</t>
+  </si>
+  <si>
+    <t>2023-07-11 17:00:46</t>
+  </si>
+  <si>
+    <t>-10.949999999999974</t>
+  </si>
+  <si>
+    <t>2023-07-11 19:00:11</t>
+  </si>
+  <si>
+    <t>-6.639999999999944</t>
+  </si>
+  <si>
+    <t>2023-07-11 22:00:12</t>
+  </si>
+  <si>
+    <t>37.88</t>
+  </si>
+  <si>
+    <t>-6.05999999999996</t>
+  </si>
+  <si>
+    <t>2023-07-12 01:00:11</t>
+  </si>
+  <si>
+    <t>-1.319999999999979</t>
+  </si>
+  <si>
+    <t>2023-07-12 03:00:10</t>
+  </si>
+  <si>
+    <t>2023-07-12 06:00:11</t>
+  </si>
+  <si>
+    <t>7.989999999999995</t>
+  </si>
+  <si>
+    <t>2023-07-12 08:00:12</t>
+  </si>
+  <si>
+    <t>38.38</t>
+  </si>
+  <si>
+    <t>-4.799999999999969</t>
+  </si>
+  <si>
+    <t>2023-07-12 11:00:11</t>
+  </si>
+  <si>
+    <t>38.25</t>
+  </si>
+  <si>
+    <t>-25.79999999999997</t>
+  </si>
+  <si>
+    <t>2023-07-12 14:00:10</t>
+  </si>
+  <si>
+    <t>-11.999999999999957</t>
+  </si>
+  <si>
+    <t>2023-07-12 17:00:12</t>
+  </si>
+  <si>
+    <t>-2.7599999999999767</t>
+  </si>
+  <si>
+    <t>2023-07-12 19:00:11</t>
+  </si>
+  <si>
+    <t>-6.189999999999955</t>
+  </si>
+  <si>
+    <t>2023-07-12 21:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-13 00:00:10</t>
+  </si>
+  <si>
+    <t>2023-07-13 02:00:11</t>
+  </si>
+  <si>
+    <t>0.5700000000000074</t>
+  </si>
+  <si>
+    <t>2023-07-13 04:00:12</t>
+  </si>
+  <si>
+    <t>2.550000000000054</t>
+  </si>
+  <si>
+    <t>2023-07-13 07:00:12</t>
+  </si>
+  <si>
+    <t>-0.30999999999995964</t>
+  </si>
+  <si>
+    <t>2023-07-13 10:00:12</t>
+  </si>
+  <si>
+    <t>-9.719999999999956</t>
+  </si>
+  <si>
+    <t>2023-07-13 13:00:10</t>
+  </si>
+  <si>
+    <t>-4.289999999999978</t>
+  </si>
+  <si>
+    <t>2023-07-13 16:00:12</t>
+  </si>
+  <si>
+    <t>-0.6299999999999528</t>
+  </si>
+  <si>
+    <t>2023-07-13 19:00:11</t>
+  </si>
+  <si>
+    <t>-3.789999999999978</t>
+  </si>
+  <si>
+    <t>2023-07-13 21:00:11</t>
+  </si>
+  <si>
+    <t>-2.2699999999999676</t>
+  </si>
+  <si>
+    <t>2023-07-13 23:00:11</t>
+  </si>
+  <si>
+    <t>-2.0199999999999676</t>
+  </si>
+  <si>
+    <t>2023-07-14 01:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-14 03:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-14 05:00:13</t>
+  </si>
+  <si>
+    <t>2023-07-14 08:00:12</t>
+  </si>
+  <si>
+    <t>-10.06999999999995</t>
+  </si>
+  <si>
+    <t>2023-07-14 10:00:11</t>
+  </si>
+  <si>
+    <t>-16.139999999999944</t>
+  </si>
+  <si>
+    <t>2023-07-14 13:00:10</t>
+  </si>
+  <si>
+    <t>38.81</t>
+  </si>
+  <si>
+    <t>2023-07-14 18:00:23</t>
+  </si>
+  <si>
+    <t>-3.07999999999997</t>
+  </si>
+  <si>
+    <t>2023-07-14 21:00:44</t>
+  </si>
+  <si>
+    <t>-2.909999999999954</t>
+  </si>
+  <si>
+    <t>2023-07-14 23:00:13</t>
+  </si>
+  <si>
+    <t>-4.30999999999996</t>
+  </si>
+  <si>
+    <t>2023-07-15 01:00:12</t>
+  </si>
+  <si>
+    <t>-3.2099999999999653</t>
+  </si>
+  <si>
+    <t>2023-07-15 03:00:10</t>
+  </si>
+  <si>
+    <t>2.0100000000000335</t>
+  </si>
+  <si>
+    <t>2023-07-15 05:00:10</t>
+  </si>
+  <si>
+    <t>2023-07-15 08:00:10</t>
+  </si>
+  <si>
+    <t>-13.059999999999988</t>
+  </si>
+  <si>
+    <t>2023-07-15 11:00:14</t>
+  </si>
+  <si>
+    <t>-4.459999999999965</t>
+  </si>
+  <si>
+    <t>2023-07-15 13:00:11</t>
+  </si>
+  <si>
+    <t>-2.3199999999999505</t>
+  </si>
+  <si>
+    <t>2023-07-15 15:00:13</t>
+  </si>
+  <si>
+    <t>-0.9599999999999653</t>
+  </si>
+  <si>
+    <t>2023-07-15 18:00:13</t>
+  </si>
+  <si>
+    <t>-1.6399999999999437</t>
+  </si>
+  <si>
+    <t>2023-07-15 20:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-15 22:00:12</t>
+  </si>
+  <si>
+    <t>8.980000000000032</t>
+  </si>
+  <si>
+    <t>2023-07-16 00:00:11</t>
+  </si>
+  <si>
+    <t>9.560000000000016</t>
+  </si>
+  <si>
+    <t>2023-07-16 02:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-16 04:00:10</t>
+  </si>
+  <si>
+    <t>2023-07-16 07:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-16 09:00:12</t>
+  </si>
+  <si>
+    <t>-0.47999999999994714</t>
+  </si>
+  <si>
+    <t>2023-07-16 11:00:10</t>
+  </si>
+  <si>
+    <t>-17.679999999999993</t>
+  </si>
+  <si>
+    <t>2023-07-16 13:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-16 16:00:12</t>
+  </si>
+  <si>
+    <t>1.5800000000000267</t>
+  </si>
+  <si>
+    <t>2023-07-16 19:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-16 21:00:13</t>
+  </si>
+  <si>
+    <t>12.350000000000009</t>
+  </si>
+  <si>
+    <t>2023-07-17 00:00:11</t>
+  </si>
+  <si>
+    <t>8.520000000000053</t>
+  </si>
+  <si>
+    <t>2023-07-17 03:00:11</t>
+  </si>
+  <si>
+    <t>38.06</t>
+  </si>
+  <si>
+    <t>2023-07-17 05:00:11</t>
+  </si>
+  <si>
+    <t>1.8200000000000358</t>
+  </si>
+  <si>
+    <t>2023-07-17 08:00:13</t>
+  </si>
+  <si>
+    <t>5.36999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-17 10:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-17 13:00:10</t>
+  </si>
+  <si>
+    <t>2023-07-17 15:00:12</t>
+  </si>
+  <si>
+    <t>-4.339999999999961</t>
+  </si>
+  <si>
+    <t>2023-07-17 18:00:10</t>
+  </si>
+  <si>
+    <t>2023-07-17 21:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-17 23:00:11</t>
+  </si>
+  <si>
+    <t>6.990000000000023</t>
+  </si>
+  <si>
+    <t>2023-07-18 01:00:12</t>
+  </si>
+  <si>
+    <t>7.820000000000007</t>
+  </si>
+  <si>
+    <t>2023-07-18 03:00:11</t>
+  </si>
+  <si>
+    <t>8.620000000000047</t>
+  </si>
+  <si>
+    <t>2023-07-18 05:00:10</t>
+  </si>
+  <si>
+    <t>-2.2999999999999687</t>
+  </si>
+  <si>
+    <t>2023-07-18 08:00:13</t>
+  </si>
+  <si>
+    <t>2023-07-18 10:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-18 12:00:10</t>
+  </si>
+  <si>
+    <t>-8.279999999999987</t>
+  </si>
+  <si>
+    <t>2023-07-18 14:00:09</t>
+  </si>
+  <si>
+    <t>13.860000000000028</t>
+  </si>
+  <si>
+    <t>2023-07-18 16:00:09</t>
+  </si>
+  <si>
+    <t>-4.259999999999977</t>
+  </si>
+  <si>
+    <t>2023-07-18 18:00:11</t>
+  </si>
+  <si>
+    <t>-4.489999999999995</t>
+  </si>
+  <si>
+    <t>2023-07-18 20:00:10</t>
+  </si>
+  <si>
+    <t>-3.010000000000005</t>
+  </si>
+  <si>
+    <t>2023-07-18 22:00:10</t>
+  </si>
+  <si>
+    <t>1.0300000000000153</t>
+  </si>
+  <si>
+    <t>2023-07-19 00:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-19 03:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-19 05:00:09</t>
+  </si>
+  <si>
+    <t>2023-07-19 08:00:09</t>
+  </si>
+  <si>
+    <t>2023-07-19 10:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-19 12:00:11</t>
+  </si>
+  <si>
+    <t>-4.549999999999997</t>
+  </si>
+  <si>
+    <t>2023-07-19 14:00:09</t>
+  </si>
+  <si>
+    <t>0.29000000000000625</t>
+  </si>
+  <si>
+    <t>2023-07-19 16:00:11</t>
+  </si>
+  <si>
+    <t>-3.230000000000004</t>
+  </si>
+  <si>
+    <t>2023-07-19 18:00:10</t>
+  </si>
+  <si>
+    <t>0.4800000000000324</t>
+  </si>
+  <si>
+    <t>2023-07-19 20:00:12</t>
+  </si>
+  <si>
+    <t>1.7900000000000347</t>
+  </si>
+  <si>
+    <t>2023-07-19 22:00:14</t>
+  </si>
+  <si>
+    <t>2023-07-20 00:00:13</t>
+  </si>
+  <si>
+    <t>2023-07-20 02:00:10</t>
+  </si>
+  <si>
+    <t>2023-07-20 04:00:11</t>
+  </si>
+  <si>
+    <t>10.66000000000004</t>
+  </si>
+  <si>
+    <t>2023-07-20 07:00:11</t>
+  </si>
+  <si>
+    <t>12.340000000000018</t>
+  </si>
+  <si>
+    <t>2023-07-20 09:00:13</t>
+  </si>
+  <si>
+    <t>-0.08999999999996078</t>
+  </si>
+  <si>
+    <t>2023-07-20 11:00:14</t>
+  </si>
+  <si>
+    <t>3.1700000000000017</t>
+  </si>
+  <si>
+    <t>2023-07-20 13:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-20 15:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-20 17:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-20 20:00:10</t>
+  </si>
+  <si>
+    <t>5.0600000000000165</t>
+  </si>
+  <si>
+    <t>2023-07-20 22:00:11</t>
+  </si>
+  <si>
+    <t>6.810000000000045</t>
+  </si>
+  <si>
+    <t>2023-07-21 00:00:10</t>
+  </si>
+  <si>
+    <t>2023-07-21 02:00:12</t>
+  </si>
+  <si>
+    <t>7.130000000000038</t>
+  </si>
+  <si>
+    <t>2023-07-21 04:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-21 07:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-21 09:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-21 11:00:11</t>
+  </si>
+  <si>
+    <t>1.140000000000029</t>
+  </si>
+  <si>
+    <t>2023-07-21 13:00:11</t>
+  </si>
+  <si>
+    <t>-7.179999999999936</t>
+  </si>
+  <si>
+    <t>2023-07-21 15:00:12</t>
+  </si>
+  <si>
+    <t>3.8299999999999983</t>
+  </si>
+  <si>
+    <t>2023-07-21 17:00:13</t>
+  </si>
+  <si>
+    <t>-6.269999999999968</t>
+  </si>
+  <si>
+    <t>2023-07-21 19:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-21 21:00:13</t>
+  </si>
+  <si>
+    <t>2023-07-21 23:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-22 01:00:11</t>
+  </si>
+  <si>
+    <t>9.080000000000055</t>
+  </si>
+  <si>
+    <t>2023-07-22 03:00:10</t>
+  </si>
+  <si>
+    <t>9.049999999999997</t>
+  </si>
+  <si>
+    <t>2023-07-22 05:00:13</t>
+  </si>
+  <si>
+    <t>2023-07-22 08:00:12</t>
+  </si>
+  <si>
+    <t>10.380000000000038</t>
+  </si>
+  <si>
+    <t>2023-07-22 10:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-22 13:00:11</t>
+  </si>
+  <si>
+    <t>-0.3399999999999892</t>
+  </si>
+  <si>
+    <t>2023-07-22 15:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-22 17:00:12</t>
+  </si>
+  <si>
+    <t>8.740000000000052</t>
+  </si>
+  <si>
+    <t>2023-07-22 20:00:14</t>
+  </si>
+  <si>
+    <t>2023-07-22 23:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-23 01:00:11</t>
+  </si>
+  <si>
+    <t>7.530000000000044</t>
+  </si>
+  <si>
+    <t>2023-07-23 03:00:10</t>
+  </si>
+  <si>
+    <t>8.500000000000014</t>
+  </si>
+  <si>
+    <t>2023-07-23 05:00:13</t>
+  </si>
+  <si>
+    <t>2023-07-23 08:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-23 10:00:13</t>
+  </si>
+  <si>
+    <t>0.7199999999999847</t>
+  </si>
+  <si>
+    <t>2023-07-23 13:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-23 15:00:14</t>
+  </si>
+  <si>
+    <t>2023-07-23 18:00:11</t>
+  </si>
+  <si>
+    <t>-0.7600000000000051</t>
+  </si>
+  <si>
+    <t>2023-07-23 20:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-23 23:00:10</t>
+  </si>
+  <si>
+    <t>2023-07-24 01:00:13</t>
+  </si>
+  <si>
+    <t>-2.4199999999999733</t>
+  </si>
+  <si>
+    <t>2023-07-24 04:00:13</t>
+  </si>
+  <si>
+    <t>2.3500000000000085</t>
+  </si>
+  <si>
+    <t>2023-07-24 07:00:14</t>
+  </si>
+  <si>
+    <t>2023-07-24 09:00:11</t>
+  </si>
+  <si>
+    <t>6.330000000000027</t>
+  </si>
+  <si>
+    <t>2023-07-24 11:00:15</t>
+  </si>
+  <si>
+    <t>0.1799999999999926</t>
+  </si>
+  <si>
+    <t>2023-07-24 13:00:11</t>
+  </si>
+  <si>
+    <t>-9.30999999999996</t>
+  </si>
+  <si>
+    <t>2023-07-24 15:00:14</t>
+  </si>
+  <si>
+    <t>-10.779999999999987</t>
+  </si>
+  <si>
+    <t>2023-07-24 17:00:13</t>
+  </si>
+  <si>
+    <t>-0.199999999999946</t>
+  </si>
+  <si>
+    <t>2023-07-24 21:00:11</t>
+  </si>
+  <si>
+    <t>-3.2799999999999585</t>
+  </si>
+  <si>
+    <t>2023-07-24 23:00:13</t>
+  </si>
+  <si>
+    <t>2023-07-25 01:00:14</t>
+  </si>
+  <si>
+    <t>-2.7599999999999483</t>
+  </si>
+  <si>
+    <t>2023-07-25 03:00:13</t>
+  </si>
+  <si>
+    <t>2023-07-25 05:00:13</t>
+  </si>
+  <si>
+    <t>4.390000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-25 08:00:13</t>
+  </si>
+  <si>
+    <t>2023-07-25 10:00:13</t>
+  </si>
+  <si>
+    <t>-15.64</t>
+  </si>
+  <si>
+    <t>2023-07-25 14:00:13</t>
+  </si>
+  <si>
+    <t>1.9600000000000222</t>
+  </si>
+  <si>
+    <t>2023-07-25 17:00:12</t>
+  </si>
+  <si>
+    <t>-10.429999999999993</t>
+  </si>
+  <si>
+    <t>2023-07-25 20:00:13</t>
+  </si>
+  <si>
+    <t>-9.909999999999954</t>
+  </si>
+  <si>
+    <t>2023-07-25 23:00:15</t>
+  </si>
+  <si>
+    <t>2023-07-26 02:00:15</t>
+  </si>
+  <si>
+    <t>-0.0999999999999801</t>
+  </si>
+  <si>
+    <t>2023-07-26 05:00:14</t>
+  </si>
+  <si>
+    <t>2023-07-26 09:00:13</t>
+  </si>
+  <si>
+    <t>-14.790000000000006</t>
+  </si>
+  <si>
+    <t>2023-07-26 12:00:13</t>
+  </si>
+  <si>
+    <t>-5.659999999999982</t>
+  </si>
+  <si>
+    <t>2023-07-26 15:00:12</t>
+  </si>
+  <si>
+    <t>-2.7199999999999847</t>
+  </si>
+  <si>
+    <t>2023-07-26 18:00:14</t>
+  </si>
+  <si>
+    <t>3.140000000000029</t>
+  </si>
+  <si>
+    <t>2023-07-26 22:00:13</t>
+  </si>
+  <si>
+    <t>2.2200000000000415</t>
+  </si>
+  <si>
+    <t>2023-07-27 02:00:13</t>
+  </si>
+  <si>
+    <t>0.519999999999996</t>
+  </si>
+  <si>
+    <t>2023-07-27 04:00:14</t>
+  </si>
+  <si>
+    <t>2023-07-27 07:00:12</t>
+  </si>
+  <si>
+    <t>9.350000000000037</t>
+  </si>
+  <si>
+    <t>2023-07-27 11:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-27 14:00:13</t>
+  </si>
+  <si>
+    <t>1.4200000000000301</t>
+  </si>
+  <si>
+    <t>2023-07-27 17:00:15</t>
+  </si>
+  <si>
+    <t>2.6100000000000563</t>
+  </si>
+  <si>
+    <t>2023-07-27 20:00:14</t>
+  </si>
+  <si>
+    <t>11.070000000000036</t>
+  </si>
+  <si>
+    <t>2023-07-27 23:00:14</t>
+  </si>
+  <si>
+    <t>2023-07-28 02:00:11</t>
+  </si>
+  <si>
+    <t>6.550000000000026</t>
+  </si>
+  <si>
+    <t>2023-07-28 04:00:12</t>
+  </si>
+  <si>
+    <t>9.200000000000003</t>
+  </si>
+  <si>
+    <t>2023-07-28 07:00:14</t>
+  </si>
+  <si>
+    <t>2023-07-28 09:00:14</t>
+  </si>
+  <si>
+    <t>2.8100000000000165</t>
+  </si>
+  <si>
+    <t>2023-07-28 12:00:10</t>
+  </si>
+  <si>
+    <t>4.030000000000015</t>
+  </si>
+  <si>
+    <t>2023-07-28 15:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-28 18:00:14</t>
+  </si>
+  <si>
+    <t>10.450000000000003</t>
+  </si>
+  <si>
+    <t>2023-07-28 21:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-28 23:00:14</t>
+  </si>
+  <si>
+    <t>8.14</t>
+  </si>
+  <si>
+    <t>2023-07-29 01:00:13</t>
+  </si>
+  <si>
+    <t>6.040000000000035</t>
+  </si>
+  <si>
+    <t>2023-07-29 03:00:12</t>
+  </si>
+  <si>
+    <t>5.960000000000022</t>
+  </si>
+  <si>
+    <t>2023-07-29 05:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-29 08:00:13</t>
+  </si>
+  <si>
+    <t>2023-07-29 10:00:14</t>
+  </si>
+  <si>
+    <t>18.470000000000013</t>
+  </si>
+  <si>
+    <t>2023-07-29 13:00:12</t>
+  </si>
+  <si>
+    <t>2.3599999999999994</t>
+  </si>
+  <si>
+    <t>2023-07-29 16:00:14</t>
+  </si>
+  <si>
+    <t>4.1700000000000585</t>
+  </si>
+  <si>
+    <t>2023-07-29 19:00:13</t>
+  </si>
+  <si>
+    <t>0.7800000000000153</t>
+  </si>
+  <si>
+    <t>2023-07-29 22:00:15</t>
+  </si>
+  <si>
+    <t>2023-07-30 01:00:12</t>
+  </si>
+  <si>
+    <t>-0.5299999999999869</t>
+  </si>
+  <si>
+    <t>2023-07-30 04:00:12</t>
+  </si>
+  <si>
+    <t>-0.41999999999994486</t>
+  </si>
+  <si>
+    <t>2023-07-30 07:00:12</t>
+  </si>
+  <si>
+    <t>6.290000000000035</t>
+  </si>
+  <si>
+    <t>2023-07-30 09:00:12</t>
+  </si>
+  <si>
+    <t>9.14</t>
+  </si>
+  <si>
+    <t>2023-07-30 11:00:13</t>
+  </si>
+  <si>
+    <t>4.549999999999997</t>
+  </si>
+  <si>
+    <t>2023-07-30 14:00:47</t>
+  </si>
+  <si>
+    <t>2023-07-30 17:00:13</t>
+  </si>
+  <si>
+    <t>2023-07-30 19:00:14</t>
+  </si>
+  <si>
+    <t>1.4800000000000324</t>
+  </si>
+  <si>
+    <t>2023-07-30 21:00:11</t>
+  </si>
+  <si>
+    <t>2023-07-30 23:00:12</t>
+  </si>
+  <si>
+    <t>10.329999999999998</t>
+  </si>
+  <si>
+    <t>2023-07-31 01:00:13</t>
+  </si>
+  <si>
+    <t>1.4900000000000233</t>
+  </si>
+  <si>
+    <t>2023-07-31 04:00:12</t>
+  </si>
+  <si>
+    <t>-2.449999999999946</t>
+  </si>
+  <si>
+    <t>2023-07-31 07:00:12</t>
+  </si>
+  <si>
+    <t>-2.2799999999999585</t>
+  </si>
+  <si>
+    <t>2023-07-31 09:00:14</t>
+  </si>
+  <si>
+    <t>2023-07-31 11:00:13</t>
+  </si>
+  <si>
+    <t>-4.959999999999965</t>
+  </si>
+  <si>
+    <t>2023-07-31 14:00:09</t>
+  </si>
+  <si>
+    <t>-14.779999999999959</t>
+  </si>
+  <si>
+    <t>2023-07-31 16:00:14</t>
+  </si>
+  <si>
+    <t>5.440000000000012</t>
+  </si>
+  <si>
+    <t>2023-07-31 18:00:13</t>
+  </si>
+  <si>
+    <t>-4.54999999999994</t>
+  </si>
+  <si>
+    <t>2023-07-31 20:00:12</t>
+  </si>
+  <si>
+    <t>-4.359999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-31 22:00:14</t>
+  </si>
+  <si>
+    <t>-3.659999999999954</t>
+  </si>
+  <si>
+    <t>2023-08-01 00:00:12</t>
+  </si>
+  <si>
+    <t>-4.039999999999978</t>
+  </si>
+  <si>
+    <t>2023-08-01 02:00:15</t>
+  </si>
+  <si>
+    <t>-1.0099999999999767</t>
+  </si>
+  <si>
+    <t>2023-08-01 04:00:12</t>
+  </si>
+  <si>
+    <t>4.230000000000032</t>
+  </si>
+  <si>
+    <t>2023-08-01 07:00:13</t>
+  </si>
+  <si>
+    <t>2023-08-01 09:00:14</t>
+  </si>
+  <si>
+    <t>2023-08-01 11:00:11</t>
+  </si>
+  <si>
+    <t>3.4699999999999847</t>
+  </si>
+  <si>
+    <t>2023-08-01 14:00:11</t>
+  </si>
+  <si>
+    <t>2023-08-01 17:00:13</t>
+  </si>
+  <si>
+    <t>-3.959999999999937</t>
+  </si>
+  <si>
+    <t>2023-08-01 19:00:11</t>
+  </si>
+  <si>
+    <t>3.6300000000000097</t>
+  </si>
+  <si>
+    <t>2023-08-01 21:00:12</t>
+  </si>
+  <si>
+    <t>2023-08-02 00:00:10</t>
+  </si>
+  <si>
+    <t>3.2800000000000438</t>
+  </si>
+  <si>
+    <t>2023-08-02 02:00:12</t>
+  </si>
+  <si>
+    <t>2.4600000000000506</t>
+  </si>
+  <si>
+    <t>2023-08-02 04:00:12</t>
+  </si>
+  <si>
+    <t>3.300000000000054</t>
+  </si>
+  <si>
+    <t>2023-08-02 08:00:12</t>
+  </si>
+  <si>
+    <t>-8.109999999999971</t>
+  </si>
+  <si>
+    <t>2023-08-02 11:00:11</t>
+  </si>
+  <si>
+    <t>-6.409999999999982</t>
+  </si>
+  <si>
+    <t>2023-08-02 13:00:09</t>
+  </si>
+  <si>
+    <t>-2.32999999999997</t>
+  </si>
+  <si>
+    <t>2023-08-02 16:00:12</t>
+  </si>
+  <si>
+    <t>-5.1499999999999915</t>
+  </si>
+  <si>
+    <t>2023-08-02 18:00:12</t>
+  </si>
+  <si>
+    <t>3.42000000000003</t>
+  </si>
+  <si>
+    <t>2023-08-02 20:00:13</t>
+  </si>
+  <si>
+    <t>2023-08-02 22:00:12</t>
+  </si>
+  <si>
+    <t>-4.999999999999957</t>
+  </si>
+  <si>
+    <t>2023-08-03 00:00:11</t>
+  </si>
+  <si>
+    <t>-2.249999999999986</t>
+  </si>
+  <si>
+    <t>2023-08-03 02:00:13</t>
+  </si>
+  <si>
+    <t>2023-08-03 04:00:13</t>
+  </si>
+  <si>
+    <t>2.7800000000000153</t>
+  </si>
+  <si>
+    <t>2023-08-03 07:00:10</t>
+  </si>
+  <si>
+    <t>2023-08-03 09:00:14</t>
+  </si>
+  <si>
+    <t>-9.649999999999963</t>
+  </si>
+  <si>
+    <t>2023-08-03 11:00:11</t>
+  </si>
+  <si>
+    <t>-6.260000000000005</t>
+  </si>
+  <si>
+    <t>2023-08-03 13:00:12</t>
+  </si>
+  <si>
+    <t>2023-08-03 15:00:11</t>
+  </si>
+  <si>
+    <t>-7.929999999999993</t>
+  </si>
+  <si>
+    <t>2023-08-03 17:00:12</t>
+  </si>
+  <si>
+    <t>2023-08-03 20:00:10</t>
+  </si>
+  <si>
+    <t>-2.1199999999999903</t>
+  </si>
+  <si>
+    <t>2023-08-03 22:00:11</t>
+  </si>
+  <si>
+    <t>0.7300000000000608</t>
+  </si>
+  <si>
+    <t>2023-08-04 00:00:12</t>
+  </si>
+  <si>
+    <t>0.03000000000004377</t>
+  </si>
+  <si>
+    <t>2023-08-04 02:00:13</t>
+  </si>
+  <si>
+    <t>4.150000000000048</t>
+  </si>
+  <si>
+    <t>2023-08-04 04:00:10</t>
+  </si>
+  <si>
+    <t>5.610000000000028</t>
+  </si>
+  <si>
+    <t>2023-08-04 07:00:13</t>
+  </si>
+  <si>
+    <t>3.269999999999996</t>
+  </si>
+  <si>
+    <t>2023-08-04 09:00:12</t>
+  </si>
+  <si>
+    <t>-11.959999999999994</t>
+  </si>
+  <si>
+    <t>2023-08-04 11:00:13</t>
+  </si>
+  <si>
+    <t>2023-08-04 14:00:10</t>
+  </si>
+  <si>
+    <t>-7.469999999999985</t>
+  </si>
+  <si>
+    <t>2023-08-04 16:00:11</t>
+  </si>
+  <si>
+    <t>4.839999999999989</t>
+  </si>
+  <si>
+    <t>2023-08-04 19:00:10</t>
+  </si>
+  <si>
+    <t>2023-08-04 22:00:10</t>
+  </si>
+  <si>
+    <t>-0.09999999999995168</t>
+  </si>
+  <si>
+    <t>2023-08-05 00:00:11</t>
+  </si>
+  <si>
+    <t>1.890000000000029</t>
+  </si>
+  <si>
+    <t>2023-08-05 02:00:12</t>
+  </si>
+  <si>
+    <t>2.910000000000039</t>
+  </si>
+  <si>
+    <t>2023-08-05 05:00:12</t>
+  </si>
+  <si>
+    <t>2023-08-05 08:00:10</t>
+  </si>
+  <si>
+    <t>-8.920000000000002</t>
+  </si>
+  <si>
+    <t>2023-08-05 10:00:11</t>
+  </si>
+  <si>
+    <t>-2.5099999999999483</t>
+  </si>
+  <si>
+    <t>2023-08-05 13:00:13</t>
+  </si>
+  <si>
+    <t>2023-08-05 16:00:11</t>
+  </si>
+  <si>
+    <t>4.90000000000002</t>
+  </si>
+  <si>
+    <t>2023-08-05 19:00:13</t>
+  </si>
+  <si>
+    <t>-8.669999999999973</t>
+  </si>
+  <si>
+    <t>2023-08-05 22:00:12</t>
+  </si>
+  <si>
+    <t>-5.489999999999995</t>
+  </si>
+  <si>
+    <t>2023-08-06 00:00:10</t>
+  </si>
+  <si>
+    <t>-5.929999999999964</t>
+  </si>
+  <si>
+    <t>2023-08-06 02:00:16</t>
+  </si>
+  <si>
+    <t>0.38000000000000966</t>
+  </si>
+  <si>
+    <t>2023-08-06 04:00:13</t>
+  </si>
+  <si>
+    <t>0.3400000000000176</t>
+  </si>
+  <si>
+    <t>2023-08-06 07:00:13</t>
+  </si>
+  <si>
+    <t>3.4800000000000324</t>
+  </si>
+  <si>
+    <t>2023-08-06 09:00:11</t>
+  </si>
+  <si>
+    <t>2023-08-06 11:00:12</t>
+  </si>
+  <si>
+    <t>-22.929999999999964</t>
+  </si>
+  <si>
+    <t>2023-08-06 14:00:11</t>
+  </si>
+  <si>
+    <t>-12.779999999999959</t>
+  </si>
+  <si>
+    <t>2023-08-06 16:00:12</t>
+  </si>
+  <si>
+    <t>2023-08-06 18:00:13</t>
+  </si>
+  <si>
+    <t>-14.109999999999943</t>
+  </si>
+  <si>
+    <t>2023-08-06 20:00:13</t>
+  </si>
+  <si>
+    <t>-10.169999999999945</t>
+  </si>
+  <si>
+    <t>2023-08-06 22:00:12</t>
+  </si>
+  <si>
+    <t>-7.369999999999962</t>
+  </si>
+  <si>
+    <t>2023-08-07 00:00:12</t>
+  </si>
+  <si>
+    <t>2023-08-07 03:00:13</t>
+  </si>
+  <si>
+    <t>-0.1899999999999551</t>
+  </si>
+  <si>
+    <t>2023-08-07 05:00:10</t>
+  </si>
+  <si>
+    <t>2023-08-07 08:00:12</t>
+  </si>
+  <si>
+    <t>2.190000000000012</t>
+  </si>
+  <si>
+    <t>2023-08-07 10:00:13</t>
+  </si>
+  <si>
+    <t>2023-08-07 12:00:12</t>
+  </si>
+  <si>
+    <t>-10.159999999999982</t>
+  </si>
+  <si>
+    <t>2023-08-07 14:00:12</t>
+  </si>
+  <si>
+    <t>-9.32999999999997</t>
+  </si>
+  <si>
+    <t>2023-08-07 16:00:11</t>
+  </si>
+  <si>
+    <t>-1.1400000000000006</t>
+  </si>
+  <si>
+    <t>2023-08-07 18:00:11</t>
+  </si>
+  <si>
+    <t>-1.3900000000000006</t>
+  </si>
+  <si>
+    <t>2023-08-07 20:00:10</t>
+  </si>
+  <si>
+    <t>1.8200000000000074</t>
+  </si>
+  <si>
+    <t>2023-08-07 22:00:13</t>
+  </si>
+  <si>
+    <t>-1.059999999999988</t>
+  </si>
+  <si>
+    <t>2023-08-08 00:00:10</t>
+  </si>
+  <si>
+    <t>2023-08-08 02:00:13</t>
+  </si>
+  <si>
+    <t>6.679999999999993</t>
+  </si>
+  <si>
+    <t>2023-08-08 04:00:12</t>
+  </si>
+  <si>
+    <t>2023-08-08 07:00:13</t>
+  </si>
+  <si>
+    <t>11.16000000000001</t>
+  </si>
+  <si>
+    <t>2023-08-08 09:00:12</t>
+  </si>
+  <si>
+    <t>11.92000000000003</t>
+  </si>
+  <si>
+    <t>2023-08-08 11:00:11</t>
+  </si>
+  <si>
+    <t>-16.739999999999938</t>
+  </si>
+  <si>
+    <t>2023-08-08 14:00:13</t>
+  </si>
+  <si>
+    <t>2023-08-08 17:00:11</t>
+  </si>
+  <si>
+    <t>2023-08-08 19:00:13</t>
+  </si>
+  <si>
+    <t>3.0500000000000256</t>
+  </si>
+  <si>
+    <t>2023-08-08 21:00:11</t>
+  </si>
+  <si>
+    <t>4.380000000000038</t>
   </si>
 </sst>
 </file>
@@ -23522,7 +25703,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4188"/>
+  <dimension ref="A1:D4611"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -82160,6 +84341,5928 @@
         <v>7821</v>
       </c>
     </row>
+    <row r="4189">
+      <c r="A4189" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4189" t="s">
+        <v>7822</v>
+      </c>
+      <c r="C4189" t="s">
+        <v>725</v>
+      </c>
+      <c r="D4189" t="s">
+        <v>7823</v>
+      </c>
+    </row>
+    <row r="4190">
+      <c r="A4190" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4190" t="s">
+        <v>7824</v>
+      </c>
+      <c r="C4190" t="s">
+        <v>816</v>
+      </c>
+      <c r="D4190" t="s">
+        <v>7119</v>
+      </c>
+    </row>
+    <row r="4191">
+      <c r="A4191" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4191" t="s">
+        <v>7825</v>
+      </c>
+      <c r="C4191" t="s">
+        <v>819</v>
+      </c>
+      <c r="D4191" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="4192">
+      <c r="A4192" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4192" t="s">
+        <v>7826</v>
+      </c>
+      <c r="C4192" t="s">
+        <v>830</v>
+      </c>
+      <c r="D4192" t="s">
+        <v>5165</v>
+      </c>
+    </row>
+    <row r="4193">
+      <c r="A4193" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4193" t="s">
+        <v>7827</v>
+      </c>
+      <c r="C4193" t="s">
+        <v>827</v>
+      </c>
+      <c r="D4193" t="s">
+        <v>7828</v>
+      </c>
+    </row>
+    <row r="4194">
+      <c r="A4194" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4194" t="s">
+        <v>7829</v>
+      </c>
+      <c r="C4194" t="s">
+        <v>854</v>
+      </c>
+      <c r="D4194" t="s">
+        <v>3819</v>
+      </c>
+    </row>
+    <row r="4195">
+      <c r="A4195" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4195" t="s">
+        <v>7830</v>
+      </c>
+      <c r="C4195" t="s">
+        <v>860</v>
+      </c>
+      <c r="D4195" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="4196">
+      <c r="A4196" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4196" t="s">
+        <v>7831</v>
+      </c>
+      <c r="C4196" t="s">
+        <v>863</v>
+      </c>
+      <c r="D4196" t="s">
+        <v>5950</v>
+      </c>
+    </row>
+    <row r="4197">
+      <c r="A4197" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4197" t="s">
+        <v>7832</v>
+      </c>
+      <c r="C4197" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D4197" t="s">
+        <v>7833</v>
+      </c>
+    </row>
+    <row r="4198">
+      <c r="A4198" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4198" t="s">
+        <v>7834</v>
+      </c>
+      <c r="C4198" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D4198" t="s">
+        <v>7835</v>
+      </c>
+    </row>
+    <row r="4199">
+      <c r="A4199" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4199" t="s">
+        <v>7836</v>
+      </c>
+      <c r="C4199" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D4199" t="s">
+        <v>7837</v>
+      </c>
+    </row>
+    <row r="4200">
+      <c r="A4200" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4200" t="s">
+        <v>7838</v>
+      </c>
+      <c r="C4200" t="s">
+        <v>872</v>
+      </c>
+      <c r="D4200" t="s">
+        <v>7839</v>
+      </c>
+    </row>
+    <row r="4201">
+      <c r="A4201" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4201" t="s">
+        <v>7840</v>
+      </c>
+      <c r="C4201" t="s">
+        <v>869</v>
+      </c>
+      <c r="D4201" t="s">
+        <v>7841</v>
+      </c>
+    </row>
+    <row r="4202">
+      <c r="A4202" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4202" t="s">
+        <v>7842</v>
+      </c>
+      <c r="C4202" t="s">
+        <v>860</v>
+      </c>
+      <c r="D4202" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="4203">
+      <c r="A4203" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4203" t="s">
+        <v>7843</v>
+      </c>
+      <c r="C4203" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D4203" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="4204">
+      <c r="A4204" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4204" t="s">
+        <v>7844</v>
+      </c>
+      <c r="C4204" t="s">
+        <v>830</v>
+      </c>
+      <c r="D4204" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="4205">
+      <c r="A4205" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4205" t="s">
+        <v>7845</v>
+      </c>
+      <c r="C4205" t="s">
+        <v>731</v>
+      </c>
+      <c r="D4205" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="4206">
+      <c r="A4206" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4206" t="s">
+        <v>7846</v>
+      </c>
+      <c r="C4206" t="s">
+        <v>813</v>
+      </c>
+      <c r="D4206" t="s">
+        <v>7847</v>
+      </c>
+    </row>
+    <row r="4207">
+      <c r="A4207" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4207" t="s">
+        <v>7848</v>
+      </c>
+      <c r="C4207" t="s">
+        <v>7292</v>
+      </c>
+      <c r="D4207" t="s">
+        <v>7849</v>
+      </c>
+    </row>
+    <row r="4208">
+      <c r="A4208" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4208" t="s">
+        <v>7850</v>
+      </c>
+      <c r="C4208" t="s">
+        <v>722</v>
+      </c>
+      <c r="D4208" t="s">
+        <v>7851</v>
+      </c>
+    </row>
+    <row r="4209">
+      <c r="A4209" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4209" t="s">
+        <v>7852</v>
+      </c>
+      <c r="C4209" t="s">
+        <v>722</v>
+      </c>
+      <c r="D4209" t="s">
+        <v>7853</v>
+      </c>
+    </row>
+    <row r="4210">
+      <c r="A4210" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4210" t="s">
+        <v>7854</v>
+      </c>
+      <c r="C4210" t="s">
+        <v>722</v>
+      </c>
+      <c r="D4210" t="s">
+        <v>7855</v>
+      </c>
+    </row>
+    <row r="4211">
+      <c r="A4211" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4211" t="s">
+        <v>7856</v>
+      </c>
+      <c r="C4211" t="s">
+        <v>722</v>
+      </c>
+      <c r="D4211" t="s">
+        <v>7327</v>
+      </c>
+    </row>
+    <row r="4212">
+      <c r="A4212" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4212" t="s">
+        <v>7857</v>
+      </c>
+      <c r="C4212" t="s">
+        <v>722</v>
+      </c>
+      <c r="D4212" t="s">
+        <v>7858</v>
+      </c>
+    </row>
+    <row r="4213">
+      <c r="A4213" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4213" t="s">
+        <v>7859</v>
+      </c>
+      <c r="C4213" t="s">
+        <v>725</v>
+      </c>
+      <c r="D4213" t="s">
+        <v>5539</v>
+      </c>
+    </row>
+    <row r="4214">
+      <c r="A4214" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4214" t="s">
+        <v>7860</v>
+      </c>
+      <c r="C4214" t="s">
+        <v>7292</v>
+      </c>
+      <c r="D4214" t="s">
+        <v>7861</v>
+      </c>
+    </row>
+    <row r="4215">
+      <c r="A4215" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4215" t="s">
+        <v>7862</v>
+      </c>
+      <c r="C4215" t="s">
+        <v>813</v>
+      </c>
+      <c r="D4215" t="s">
+        <v>5301</v>
+      </c>
+    </row>
+    <row r="4216">
+      <c r="A4216" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4216" t="s">
+        <v>7863</v>
+      </c>
+      <c r="C4216" t="s">
+        <v>728</v>
+      </c>
+      <c r="D4216" t="s">
+        <v>6145</v>
+      </c>
+    </row>
+    <row r="4217">
+      <c r="A4217" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4217" t="s">
+        <v>7864</v>
+      </c>
+      <c r="C4217" t="s">
+        <v>731</v>
+      </c>
+      <c r="D4217" t="s">
+        <v>7865</v>
+      </c>
+    </row>
+    <row r="4218">
+      <c r="A4218" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4218" t="s">
+        <v>7866</v>
+      </c>
+      <c r="C4218" t="s">
+        <v>816</v>
+      </c>
+      <c r="D4218" t="s">
+        <v>7867</v>
+      </c>
+    </row>
+    <row r="4219">
+      <c r="A4219" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4219" t="s">
+        <v>7868</v>
+      </c>
+      <c r="C4219" t="s">
+        <v>816</v>
+      </c>
+      <c r="D4219" t="s">
+        <v>7869</v>
+      </c>
+    </row>
+    <row r="4220">
+      <c r="A4220" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4220" t="s">
+        <v>7870</v>
+      </c>
+      <c r="C4220" t="s">
+        <v>731</v>
+      </c>
+      <c r="D4220" t="s">
+        <v>7871</v>
+      </c>
+    </row>
+    <row r="4221">
+      <c r="A4221" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4221" t="s">
+        <v>7872</v>
+      </c>
+      <c r="C4221" t="s">
+        <v>7292</v>
+      </c>
+      <c r="D4221" t="s">
+        <v>7873</v>
+      </c>
+    </row>
+    <row r="4222">
+      <c r="A4222" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4222" t="s">
+        <v>7874</v>
+      </c>
+      <c r="C4222" t="s">
+        <v>709</v>
+      </c>
+      <c r="D4222" t="s">
+        <v>7875</v>
+      </c>
+    </row>
+    <row r="4223">
+      <c r="A4223" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4223" t="s">
+        <v>7876</v>
+      </c>
+      <c r="C4223" t="s">
+        <v>795</v>
+      </c>
+      <c r="D4223" t="s">
+        <v>7877</v>
+      </c>
+    </row>
+    <row r="4224">
+      <c r="A4224" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4224" t="s">
+        <v>7878</v>
+      </c>
+      <c r="C4224" t="s">
+        <v>741</v>
+      </c>
+      <c r="D4224" t="s">
+        <v>7879</v>
+      </c>
+    </row>
+    <row r="4225">
+      <c r="A4225" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4225" t="s">
+        <v>7880</v>
+      </c>
+      <c r="C4225" t="s">
+        <v>788</v>
+      </c>
+      <c r="D4225" t="s">
+        <v>7881</v>
+      </c>
+    </row>
+    <row r="4226">
+      <c r="A4226" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4226" t="s">
+        <v>7882</v>
+      </c>
+      <c r="C4226" t="s">
+        <v>788</v>
+      </c>
+      <c r="D4226" t="s">
+        <v>7883</v>
+      </c>
+    </row>
+    <row r="4227">
+      <c r="A4227" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4227" t="s">
+        <v>7884</v>
+      </c>
+      <c r="C4227" t="s">
+        <v>788</v>
+      </c>
+      <c r="D4227" t="s">
+        <v>7855</v>
+      </c>
+    </row>
+    <row r="4228">
+      <c r="A4228" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4228" t="s">
+        <v>7885</v>
+      </c>
+      <c r="C4228" t="s">
+        <v>7886</v>
+      </c>
+      <c r="D4228" t="s">
+        <v>7887</v>
+      </c>
+    </row>
+    <row r="4229">
+      <c r="A4229" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4229" t="s">
+        <v>7888</v>
+      </c>
+      <c r="C4229" t="s">
+        <v>741</v>
+      </c>
+      <c r="D4229" t="s">
+        <v>7536</v>
+      </c>
+    </row>
+    <row r="4230">
+      <c r="A4230" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4230" t="s">
+        <v>7889</v>
+      </c>
+      <c r="C4230" t="s">
+        <v>7890</v>
+      </c>
+      <c r="D4230" t="s">
+        <v>7891</v>
+      </c>
+    </row>
+    <row r="4231">
+      <c r="A4231" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4231" t="s">
+        <v>7892</v>
+      </c>
+      <c r="C4231" t="s">
+        <v>7893</v>
+      </c>
+      <c r="D4231" t="s">
+        <v>6490</v>
+      </c>
+    </row>
+    <row r="4232">
+      <c r="A4232" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4232" t="s">
+        <v>7894</v>
+      </c>
+      <c r="C4232" t="s">
+        <v>690</v>
+      </c>
+      <c r="D4232" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="4233">
+      <c r="A4233" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4233" t="s">
+        <v>7895</v>
+      </c>
+      <c r="C4233" t="s">
+        <v>693</v>
+      </c>
+      <c r="D4233" t="s">
+        <v>5261</v>
+      </c>
+    </row>
+    <row r="4234">
+      <c r="A4234" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4234" t="s">
+        <v>7896</v>
+      </c>
+      <c r="C4234" t="s">
+        <v>800</v>
+      </c>
+      <c r="D4234" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="4235">
+      <c r="A4235" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4235" t="s">
+        <v>7897</v>
+      </c>
+      <c r="C4235" t="s">
+        <v>696</v>
+      </c>
+      <c r="D4235" t="s">
+        <v>7898</v>
+      </c>
+    </row>
+    <row r="4236">
+      <c r="A4236" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4236" t="s">
+        <v>7899</v>
+      </c>
+      <c r="C4236" t="s">
+        <v>7783</v>
+      </c>
+      <c r="D4236" t="s">
+        <v>3507</v>
+      </c>
+    </row>
+    <row r="4237">
+      <c r="A4237" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4237" t="s">
+        <v>7900</v>
+      </c>
+      <c r="C4237" t="s">
+        <v>712</v>
+      </c>
+      <c r="D4237" t="s">
+        <v>7901</v>
+      </c>
+    </row>
+    <row r="4238">
+      <c r="A4238" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4238" t="s">
+        <v>7902</v>
+      </c>
+      <c r="C4238" t="s">
+        <v>7783</v>
+      </c>
+      <c r="D4238" t="s">
+        <v>7903</v>
+      </c>
+    </row>
+    <row r="4239">
+      <c r="A4239" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4239" t="s">
+        <v>7904</v>
+      </c>
+      <c r="C4239" t="s">
+        <v>800</v>
+      </c>
+      <c r="D4239" t="s">
+        <v>7905</v>
+      </c>
+    </row>
+    <row r="4240">
+      <c r="A4240" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4240" t="s">
+        <v>7906</v>
+      </c>
+      <c r="C4240" t="s">
+        <v>7907</v>
+      </c>
+      <c r="D4240" t="s">
+        <v>7908</v>
+      </c>
+    </row>
+    <row r="4241">
+      <c r="A4241" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4241" t="s">
+        <v>7909</v>
+      </c>
+      <c r="C4241" t="s">
+        <v>7893</v>
+      </c>
+      <c r="D4241" t="s">
+        <v>7910</v>
+      </c>
+    </row>
+    <row r="4242">
+      <c r="A4242" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4242" t="s">
+        <v>7911</v>
+      </c>
+      <c r="C4242" t="s">
+        <v>684</v>
+      </c>
+      <c r="D4242" t="s">
+        <v>7912</v>
+      </c>
+    </row>
+    <row r="4243">
+      <c r="A4243" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4243" t="s">
+        <v>7913</v>
+      </c>
+      <c r="C4243" t="s">
+        <v>7914</v>
+      </c>
+      <c r="D4243" t="s">
+        <v>7915</v>
+      </c>
+    </row>
+    <row r="4244">
+      <c r="A4244" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4244" t="s">
+        <v>7916</v>
+      </c>
+      <c r="C4244" t="s">
+        <v>744</v>
+      </c>
+      <c r="D4244" t="s">
+        <v>7917</v>
+      </c>
+    </row>
+    <row r="4245">
+      <c r="A4245" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4245" t="s">
+        <v>7918</v>
+      </c>
+      <c r="C4245" t="s">
+        <v>780</v>
+      </c>
+      <c r="D4245" t="s">
+        <v>7919</v>
+      </c>
+    </row>
+    <row r="4246">
+      <c r="A4246" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4246" t="s">
+        <v>7920</v>
+      </c>
+      <c r="C4246" t="s">
+        <v>669</v>
+      </c>
+      <c r="D4246" t="s">
+        <v>7921</v>
+      </c>
+    </row>
+    <row r="4247">
+      <c r="A4247" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4247" t="s">
+        <v>7922</v>
+      </c>
+      <c r="C4247" t="s">
+        <v>669</v>
+      </c>
+      <c r="D4247" t="s">
+        <v>7923</v>
+      </c>
+    </row>
+    <row r="4248">
+      <c r="A4248" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4248" t="s">
+        <v>7924</v>
+      </c>
+      <c r="C4248" t="s">
+        <v>749</v>
+      </c>
+      <c r="D4248" t="s">
+        <v>7925</v>
+      </c>
+    </row>
+    <row r="4249">
+      <c r="A4249" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4249" t="s">
+        <v>7926</v>
+      </c>
+      <c r="C4249" t="s">
+        <v>747</v>
+      </c>
+      <c r="D4249" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="4250">
+      <c r="A4250" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4250" t="s">
+        <v>7927</v>
+      </c>
+      <c r="C4250" t="s">
+        <v>754</v>
+      </c>
+      <c r="D4250" t="s">
+        <v>7928</v>
+      </c>
+    </row>
+    <row r="4251">
+      <c r="A4251" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4251" t="s">
+        <v>7929</v>
+      </c>
+      <c r="C4251" t="s">
+        <v>675</v>
+      </c>
+      <c r="D4251" t="s">
+        <v>7287</v>
+      </c>
+    </row>
+    <row r="4252">
+      <c r="A4252" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4252" t="s">
+        <v>7930</v>
+      </c>
+      <c r="C4252" t="s">
+        <v>763</v>
+      </c>
+      <c r="D4252" t="s">
+        <v>7931</v>
+      </c>
+    </row>
+    <row r="4253">
+      <c r="A4253" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4253" t="s">
+        <v>7932</v>
+      </c>
+      <c r="C4253" t="s">
+        <v>744</v>
+      </c>
+      <c r="D4253" t="s">
+        <v>7933</v>
+      </c>
+    </row>
+    <row r="4254">
+      <c r="A4254" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4254" t="s">
+        <v>7934</v>
+      </c>
+      <c r="C4254" t="s">
+        <v>678</v>
+      </c>
+      <c r="D4254" t="s">
+        <v>7935</v>
+      </c>
+    </row>
+    <row r="4255">
+      <c r="A4255" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4255" t="s">
+        <v>7936</v>
+      </c>
+      <c r="C4255" t="s">
+        <v>678</v>
+      </c>
+      <c r="D4255" t="s">
+        <v>7937</v>
+      </c>
+    </row>
+    <row r="4256">
+      <c r="A4256" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4256" t="s">
+        <v>7938</v>
+      </c>
+      <c r="C4256" t="s">
+        <v>780</v>
+      </c>
+      <c r="D4256" t="s">
+        <v>7939</v>
+      </c>
+    </row>
+    <row r="4257">
+      <c r="A4257" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4257" t="s">
+        <v>7940</v>
+      </c>
+      <c r="C4257" t="s">
+        <v>669</v>
+      </c>
+      <c r="D4257" t="s">
+        <v>7941</v>
+      </c>
+    </row>
+    <row r="4258">
+      <c r="A4258" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4258" t="s">
+        <v>7942</v>
+      </c>
+      <c r="C4258" t="s">
+        <v>7943</v>
+      </c>
+      <c r="D4258" t="s">
+        <v>7944</v>
+      </c>
+    </row>
+    <row r="4259">
+      <c r="A4259" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4259" t="s">
+        <v>7945</v>
+      </c>
+      <c r="C4259" t="s">
+        <v>7946</v>
+      </c>
+      <c r="D4259" t="s">
+        <v>7947</v>
+      </c>
+    </row>
+    <row r="4260">
+      <c r="A4260" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4260" t="s">
+        <v>7948</v>
+      </c>
+      <c r="C4260" t="s">
+        <v>664</v>
+      </c>
+      <c r="D4260" t="s">
+        <v>7949</v>
+      </c>
+    </row>
+    <row r="4261">
+      <c r="A4261" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4261" t="s">
+        <v>7950</v>
+      </c>
+      <c r="C4261" t="s">
+        <v>7951</v>
+      </c>
+      <c r="D4261" t="s">
+        <v>7952</v>
+      </c>
+    </row>
+    <row r="4262">
+      <c r="A4262" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4262" t="s">
+        <v>7953</v>
+      </c>
+      <c r="C4262" t="s">
+        <v>7951</v>
+      </c>
+      <c r="D4262" t="s">
+        <v>7954</v>
+      </c>
+    </row>
+    <row r="4263">
+      <c r="A4263" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4263" t="s">
+        <v>7955</v>
+      </c>
+      <c r="C4263" t="s">
+        <v>661</v>
+      </c>
+      <c r="D4263" t="s">
+        <v>7217</v>
+      </c>
+    </row>
+    <row r="4264">
+      <c r="A4264" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4264" t="s">
+        <v>7956</v>
+      </c>
+      <c r="C4264" t="s">
+        <v>7957</v>
+      </c>
+      <c r="D4264" t="s">
+        <v>7958</v>
+      </c>
+    </row>
+    <row r="4265">
+      <c r="A4265" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4265" t="s">
+        <v>7959</v>
+      </c>
+      <c r="C4265" t="s">
+        <v>7946</v>
+      </c>
+      <c r="D4265" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="4266">
+      <c r="A4266" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4266" t="s">
+        <v>7960</v>
+      </c>
+      <c r="C4266" t="s">
+        <v>7961</v>
+      </c>
+      <c r="D4266" t="s">
+        <v>5924</v>
+      </c>
+    </row>
+    <row r="4267">
+      <c r="A4267" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4267" t="s">
+        <v>7962</v>
+      </c>
+      <c r="C4267" t="s">
+        <v>773</v>
+      </c>
+      <c r="D4267" t="s">
+        <v>7963</v>
+      </c>
+    </row>
+    <row r="4268">
+      <c r="A4268" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4268" t="s">
+        <v>7964</v>
+      </c>
+      <c r="C4268" t="s">
+        <v>747</v>
+      </c>
+      <c r="D4268" t="s">
+        <v>7965</v>
+      </c>
+    </row>
+    <row r="4269">
+      <c r="A4269" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4269" t="s">
+        <v>7966</v>
+      </c>
+      <c r="C4269" t="s">
+        <v>780</v>
+      </c>
+      <c r="D4269" t="s">
+        <v>7967</v>
+      </c>
+    </row>
+    <row r="4270">
+      <c r="A4270" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4270" t="s">
+        <v>7968</v>
+      </c>
+      <c r="C4270" t="s">
+        <v>7914</v>
+      </c>
+      <c r="D4270" t="s">
+        <v>7969</v>
+      </c>
+    </row>
+    <row r="4271">
+      <c r="A4271" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4271" t="s">
+        <v>7970</v>
+      </c>
+      <c r="C4271" t="s">
+        <v>741</v>
+      </c>
+      <c r="D4271" t="s">
+        <v>7971</v>
+      </c>
+    </row>
+    <row r="4272">
+      <c r="A4272" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4272" t="s">
+        <v>7972</v>
+      </c>
+      <c r="C4272" t="s">
+        <v>687</v>
+      </c>
+      <c r="D4272" t="s">
+        <v>5768</v>
+      </c>
+    </row>
+    <row r="4273">
+      <c r="A4273" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4273" t="s">
+        <v>7973</v>
+      </c>
+      <c r="C4273" t="s">
+        <v>690</v>
+      </c>
+      <c r="D4273" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="4274">
+      <c r="A4274" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4274" t="s">
+        <v>7974</v>
+      </c>
+      <c r="C4274" t="s">
+        <v>693</v>
+      </c>
+      <c r="D4274" t="s">
+        <v>4853</v>
+      </c>
+    </row>
+    <row r="4275">
+      <c r="A4275" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4275" t="s">
+        <v>7975</v>
+      </c>
+      <c r="C4275" t="s">
+        <v>800</v>
+      </c>
+      <c r="D4275" t="s">
+        <v>7976</v>
+      </c>
+    </row>
+    <row r="4276">
+      <c r="A4276" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4276" t="s">
+        <v>7977</v>
+      </c>
+      <c r="C4276" t="s">
+        <v>738</v>
+      </c>
+      <c r="D4276" t="s">
+        <v>7978</v>
+      </c>
+    </row>
+    <row r="4277">
+      <c r="A4277" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4277" t="s">
+        <v>7979</v>
+      </c>
+      <c r="C4277" t="s">
+        <v>696</v>
+      </c>
+      <c r="D4277" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="4278">
+      <c r="A4278" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4278" t="s">
+        <v>7980</v>
+      </c>
+      <c r="C4278" t="s">
+        <v>7783</v>
+      </c>
+      <c r="D4278" t="s">
+        <v>7981</v>
+      </c>
+    </row>
+    <row r="4279">
+      <c r="A4279" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4279" t="s">
+        <v>7982</v>
+      </c>
+      <c r="C4279" t="s">
+        <v>709</v>
+      </c>
+      <c r="D4279" t="s">
+        <v>6647</v>
+      </c>
+    </row>
+    <row r="4280">
+      <c r="A4280" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4280" t="s">
+        <v>7983</v>
+      </c>
+      <c r="C4280" t="s">
+        <v>719</v>
+      </c>
+      <c r="D4280" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="4281">
+      <c r="A4281" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4281" t="s">
+        <v>7984</v>
+      </c>
+      <c r="C4281" t="s">
+        <v>725</v>
+      </c>
+      <c r="D4281" t="s">
+        <v>6472</v>
+      </c>
+    </row>
+    <row r="4282">
+      <c r="A4282" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4282" t="s">
+        <v>7985</v>
+      </c>
+      <c r="C4282" t="s">
+        <v>7292</v>
+      </c>
+      <c r="D4282" t="s">
+        <v>7986</v>
+      </c>
+    </row>
+    <row r="4283">
+      <c r="A4283" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4283" t="s">
+        <v>7987</v>
+      </c>
+      <c r="C4283" t="s">
+        <v>731</v>
+      </c>
+      <c r="D4283" t="s">
+        <v>6721</v>
+      </c>
+    </row>
+    <row r="4284">
+      <c r="A4284" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4284" t="s">
+        <v>7988</v>
+      </c>
+      <c r="C4284" t="s">
+        <v>816</v>
+      </c>
+      <c r="D4284" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4285">
+      <c r="A4285" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4285" t="s">
+        <v>7989</v>
+      </c>
+      <c r="C4285" t="s">
+        <v>848</v>
+      </c>
+      <c r="D4285" t="s">
+        <v>6558</v>
+      </c>
+    </row>
+    <row r="4286">
+      <c r="A4286" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4286" t="s">
+        <v>7990</v>
+      </c>
+      <c r="C4286" t="s">
+        <v>819</v>
+      </c>
+      <c r="D4286" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="4287">
+      <c r="A4287" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4287" t="s">
+        <v>7991</v>
+      </c>
+      <c r="C4287" t="s">
+        <v>819</v>
+      </c>
+      <c r="D4287" t="s">
+        <v>7992</v>
+      </c>
+    </row>
+    <row r="4288">
+      <c r="A4288" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4288" t="s">
+        <v>7993</v>
+      </c>
+      <c r="C4288" t="s">
+        <v>821</v>
+      </c>
+      <c r="D4288" t="s">
+        <v>7994</v>
+      </c>
+    </row>
+    <row r="4289">
+      <c r="A4289" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4289" t="s">
+        <v>7995</v>
+      </c>
+      <c r="C4289" t="s">
+        <v>819</v>
+      </c>
+      <c r="D4289" t="s">
+        <v>7996</v>
+      </c>
+    </row>
+    <row r="4290">
+      <c r="A4290" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4290" t="s">
+        <v>7997</v>
+      </c>
+      <c r="C4290" t="s">
+        <v>848</v>
+      </c>
+      <c r="D4290" t="s">
+        <v>7998</v>
+      </c>
+    </row>
+    <row r="4291">
+      <c r="A4291" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4291" t="s">
+        <v>7999</v>
+      </c>
+      <c r="C4291" t="s">
+        <v>7292</v>
+      </c>
+      <c r="D4291" t="s">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="4292">
+      <c r="A4292" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4292" t="s">
+        <v>8001</v>
+      </c>
+      <c r="C4292" t="s">
+        <v>7292</v>
+      </c>
+      <c r="D4292" t="s">
+        <v>8002</v>
+      </c>
+    </row>
+    <row r="4293">
+      <c r="A4293" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4293" t="s">
+        <v>8003</v>
+      </c>
+      <c r="C4293" t="s">
+        <v>795</v>
+      </c>
+      <c r="D4293" t="s">
+        <v>8004</v>
+      </c>
+    </row>
+    <row r="4294">
+      <c r="A4294" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4294" t="s">
+        <v>8005</v>
+      </c>
+      <c r="C4294" t="s">
+        <v>792</v>
+      </c>
+      <c r="D4294" t="s">
+        <v>8006</v>
+      </c>
+    </row>
+    <row r="4295">
+      <c r="A4295" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4295" t="s">
+        <v>8007</v>
+      </c>
+      <c r="C4295" t="s">
+        <v>7886</v>
+      </c>
+      <c r="D4295" t="s">
+        <v>8008</v>
+      </c>
+    </row>
+    <row r="4296">
+      <c r="A4296" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4296" t="s">
+        <v>8009</v>
+      </c>
+      <c r="C4296" t="s">
+        <v>684</v>
+      </c>
+      <c r="D4296" t="s">
+        <v>6973</v>
+      </c>
+    </row>
+    <row r="4297">
+      <c r="A4297" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4297" t="s">
+        <v>8010</v>
+      </c>
+      <c r="C4297" t="s">
+        <v>792</v>
+      </c>
+      <c r="D4297" t="s">
+        <v>8011</v>
+      </c>
+    </row>
+    <row r="4298">
+      <c r="A4298" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4298" t="s">
+        <v>8012</v>
+      </c>
+      <c r="C4298" t="s">
+        <v>687</v>
+      </c>
+      <c r="D4298" t="s">
+        <v>8013</v>
+      </c>
+    </row>
+    <row r="4299">
+      <c r="A4299" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4299" t="s">
+        <v>8014</v>
+      </c>
+      <c r="C4299" t="s">
+        <v>792</v>
+      </c>
+      <c r="D4299" t="s">
+        <v>8015</v>
+      </c>
+    </row>
+    <row r="4300">
+      <c r="A4300" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4300" t="s">
+        <v>8016</v>
+      </c>
+      <c r="C4300" t="s">
+        <v>7914</v>
+      </c>
+      <c r="D4300" t="s">
+        <v>8017</v>
+      </c>
+    </row>
+    <row r="4301">
+      <c r="A4301" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4301" t="s">
+        <v>8018</v>
+      </c>
+      <c r="C4301" t="s">
+        <v>664</v>
+      </c>
+      <c r="D4301" t="s">
+        <v>8019</v>
+      </c>
+    </row>
+    <row r="4302">
+      <c r="A4302" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4302" t="s">
+        <v>8020</v>
+      </c>
+      <c r="C4302" t="s">
+        <v>658</v>
+      </c>
+      <c r="D4302" t="s">
+        <v>8021</v>
+      </c>
+    </row>
+    <row r="4303">
+      <c r="A4303" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4303" t="s">
+        <v>8022</v>
+      </c>
+      <c r="C4303" t="s">
+        <v>658</v>
+      </c>
+      <c r="D4303" t="s">
+        <v>7491</v>
+      </c>
+    </row>
+    <row r="4304">
+      <c r="A4304" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4304" t="s">
+        <v>8023</v>
+      </c>
+      <c r="C4304" t="s">
+        <v>8024</v>
+      </c>
+      <c r="D4304" t="s">
+        <v>8025</v>
+      </c>
+    </row>
+    <row r="4305">
+      <c r="A4305" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4305" t="s">
+        <v>8026</v>
+      </c>
+      <c r="C4305" t="s">
+        <v>7946</v>
+      </c>
+      <c r="D4305" t="s">
+        <v>8027</v>
+      </c>
+    </row>
+    <row r="4306">
+      <c r="A4306" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4306" t="s">
+        <v>8028</v>
+      </c>
+      <c r="C4306" t="s">
+        <v>773</v>
+      </c>
+      <c r="D4306" t="s">
+        <v>8029</v>
+      </c>
+    </row>
+    <row r="4307">
+      <c r="A4307" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4307" t="s">
+        <v>8030</v>
+      </c>
+      <c r="C4307" t="s">
+        <v>666</v>
+      </c>
+      <c r="D4307" t="s">
+        <v>8031</v>
+      </c>
+    </row>
+    <row r="4308">
+      <c r="A4308" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4308" t="s">
+        <v>8032</v>
+      </c>
+      <c r="C4308" t="s">
+        <v>658</v>
+      </c>
+      <c r="D4308" t="s">
+        <v>8033</v>
+      </c>
+    </row>
+    <row r="4309">
+      <c r="A4309" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4309" t="s">
+        <v>8034</v>
+      </c>
+      <c r="C4309" t="s">
+        <v>8035</v>
+      </c>
+      <c r="D4309" t="s">
+        <v>8036</v>
+      </c>
+    </row>
+    <row r="4310">
+      <c r="A4310" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4310" t="s">
+        <v>8037</v>
+      </c>
+      <c r="C4310" t="s">
+        <v>8038</v>
+      </c>
+      <c r="D4310" t="s">
+        <v>8039</v>
+      </c>
+    </row>
+    <row r="4311">
+      <c r="A4311" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4311" t="s">
+        <v>8040</v>
+      </c>
+      <c r="C4311" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4311" t="s">
+        <v>8041</v>
+      </c>
+    </row>
+    <row r="4312">
+      <c r="A4312" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4312" t="s">
+        <v>8042</v>
+      </c>
+      <c r="C4312" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4312" t="s">
+        <v>7760</v>
+      </c>
+    </row>
+    <row r="4313">
+      <c r="A4313" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4313" t="s">
+        <v>8043</v>
+      </c>
+      <c r="C4313" t="s">
+        <v>8038</v>
+      </c>
+      <c r="D4313" t="s">
+        <v>8044</v>
+      </c>
+    </row>
+    <row r="4314">
+      <c r="A4314" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4314" t="s">
+        <v>8045</v>
+      </c>
+      <c r="C4314" t="s">
+        <v>8046</v>
+      </c>
+      <c r="D4314" t="s">
+        <v>8047</v>
+      </c>
+    </row>
+    <row r="4315">
+      <c r="A4315" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4315" t="s">
+        <v>8048</v>
+      </c>
+      <c r="C4315" t="s">
+        <v>7951</v>
+      </c>
+      <c r="D4315" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="4316">
+      <c r="A4316" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4316" t="s">
+        <v>8049</v>
+      </c>
+      <c r="C4316" t="s">
+        <v>661</v>
+      </c>
+      <c r="D4316" t="s">
+        <v>8050</v>
+      </c>
+    </row>
+    <row r="4317">
+      <c r="A4317" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4317" t="s">
+        <v>8051</v>
+      </c>
+      <c r="C4317" t="s">
+        <v>8052</v>
+      </c>
+      <c r="D4317" t="s">
+        <v>8053</v>
+      </c>
+    </row>
+    <row r="4318">
+      <c r="A4318" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4318" t="s">
+        <v>8054</v>
+      </c>
+      <c r="C4318" t="s">
+        <v>8046</v>
+      </c>
+      <c r="D4318" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4319">
+      <c r="A4319" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4319" t="s">
+        <v>8055</v>
+      </c>
+      <c r="C4319" t="s">
+        <v>8035</v>
+      </c>
+      <c r="D4319" t="s">
+        <v>7683</v>
+      </c>
+    </row>
+    <row r="4320">
+      <c r="A4320" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4320" t="s">
+        <v>8056</v>
+      </c>
+      <c r="C4320" t="s">
+        <v>661</v>
+      </c>
+      <c r="D4320" t="s">
+        <v>8057</v>
+      </c>
+    </row>
+    <row r="4321">
+      <c r="A4321" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4321" t="s">
+        <v>8058</v>
+      </c>
+      <c r="C4321" t="s">
+        <v>7946</v>
+      </c>
+      <c r="D4321" t="s">
+        <v>7112</v>
+      </c>
+    </row>
+    <row r="4322">
+      <c r="A4322" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4322" t="s">
+        <v>8059</v>
+      </c>
+      <c r="C4322" t="s">
+        <v>749</v>
+      </c>
+      <c r="D4322" t="s">
+        <v>3826</v>
+      </c>
+    </row>
+    <row r="4323">
+      <c r="A4323" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4323" t="s">
+        <v>8060</v>
+      </c>
+      <c r="C4323" t="s">
+        <v>672</v>
+      </c>
+      <c r="D4323" t="s">
+        <v>7087</v>
+      </c>
+    </row>
+    <row r="4324">
+      <c r="A4324" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4324" t="s">
+        <v>8061</v>
+      </c>
+      <c r="C4324" t="s">
+        <v>749</v>
+      </c>
+      <c r="D4324" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="4325">
+      <c r="A4325" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4325" t="s">
+        <v>8062</v>
+      </c>
+      <c r="C4325" t="s">
+        <v>7946</v>
+      </c>
+      <c r="D4325" t="s">
+        <v>8063</v>
+      </c>
+    </row>
+    <row r="4326">
+      <c r="A4326" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4326" t="s">
+        <v>8064</v>
+      </c>
+      <c r="C4326" t="s">
+        <v>661</v>
+      </c>
+      <c r="D4326" t="s">
+        <v>8065</v>
+      </c>
+    </row>
+    <row r="4327">
+      <c r="A4327" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4327" t="s">
+        <v>8066</v>
+      </c>
+      <c r="C4327" t="s">
+        <v>7951</v>
+      </c>
+      <c r="D4327" t="s">
+        <v>8067</v>
+      </c>
+    </row>
+    <row r="4328">
+      <c r="A4328" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4328" t="s">
+        <v>8068</v>
+      </c>
+      <c r="C4328" t="s">
+        <v>658</v>
+      </c>
+      <c r="D4328" t="s">
+        <v>5371</v>
+      </c>
+    </row>
+    <row r="4329">
+      <c r="A4329" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4329" t="s">
+        <v>8069</v>
+      </c>
+      <c r="C4329" t="s">
+        <v>666</v>
+      </c>
+      <c r="D4329" t="s">
+        <v>8070</v>
+      </c>
+    </row>
+    <row r="4330">
+      <c r="A4330" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4330" t="s">
+        <v>8071</v>
+      </c>
+      <c r="C4330" t="s">
+        <v>749</v>
+      </c>
+      <c r="D4330" t="s">
+        <v>8072</v>
+      </c>
+    </row>
+    <row r="4331">
+      <c r="A4331" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4331" t="s">
+        <v>8073</v>
+      </c>
+      <c r="C4331" t="s">
+        <v>754</v>
+      </c>
+      <c r="D4331" t="s">
+        <v>8074</v>
+      </c>
+    </row>
+    <row r="4332">
+      <c r="A4332" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4332" t="s">
+        <v>8075</v>
+      </c>
+      <c r="C4332" t="s">
+        <v>672</v>
+      </c>
+      <c r="D4332" t="s">
+        <v>8076</v>
+      </c>
+    </row>
+    <row r="4333">
+      <c r="A4333" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4333" t="s">
+        <v>8077</v>
+      </c>
+      <c r="C4333" t="s">
+        <v>8024</v>
+      </c>
+      <c r="D4333" t="s">
+        <v>8078</v>
+      </c>
+    </row>
+    <row r="4334">
+      <c r="A4334" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4334" t="s">
+        <v>8079</v>
+      </c>
+      <c r="C4334" t="s">
+        <v>8080</v>
+      </c>
+      <c r="D4334" t="s">
+        <v>8081</v>
+      </c>
+    </row>
+    <row r="4335">
+      <c r="A4335" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4335" t="s">
+        <v>8082</v>
+      </c>
+      <c r="C4335" t="s">
+        <v>650</v>
+      </c>
+      <c r="D4335" t="s">
+        <v>8083</v>
+      </c>
+    </row>
+    <row r="4336">
+      <c r="A4336" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4336" t="s">
+        <v>8084</v>
+      </c>
+      <c r="C4336" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4336" t="s">
+        <v>7712</v>
+      </c>
+    </row>
+    <row r="4337">
+      <c r="A4337" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4337" t="s">
+        <v>8085</v>
+      </c>
+      <c r="C4337" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4337" t="s">
+        <v>8086</v>
+      </c>
+    </row>
+    <row r="4338">
+      <c r="A4338" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4338" t="s">
+        <v>8087</v>
+      </c>
+      <c r="C4338" t="s">
+        <v>8088</v>
+      </c>
+      <c r="D4338" t="s">
+        <v>8089</v>
+      </c>
+    </row>
+    <row r="4339">
+      <c r="A4339" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4339" t="s">
+        <v>8090</v>
+      </c>
+      <c r="C4339" t="s">
+        <v>8091</v>
+      </c>
+      <c r="D4339" t="s">
+        <v>8092</v>
+      </c>
+    </row>
+    <row r="4340">
+      <c r="A4340" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4340" t="s">
+        <v>8093</v>
+      </c>
+      <c r="C4340" t="s">
+        <v>8038</v>
+      </c>
+      <c r="D4340" t="s">
+        <v>8094</v>
+      </c>
+    </row>
+    <row r="4341">
+      <c r="A4341" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4341" t="s">
+        <v>8095</v>
+      </c>
+      <c r="C4341" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4341" t="s">
+        <v>8096</v>
+      </c>
+    </row>
+    <row r="4342">
+      <c r="A4342" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4342" t="s">
+        <v>8097</v>
+      </c>
+      <c r="C4342" t="s">
+        <v>647</v>
+      </c>
+      <c r="D4342" t="s">
+        <v>8098</v>
+      </c>
+    </row>
+    <row r="4343">
+      <c r="A4343" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4343" t="s">
+        <v>8099</v>
+      </c>
+      <c r="C4343" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4343" t="s">
+        <v>5851</v>
+      </c>
+    </row>
+    <row r="4344">
+      <c r="A4344" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4344" t="s">
+        <v>8100</v>
+      </c>
+      <c r="C4344" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4344" t="s">
+        <v>8039</v>
+      </c>
+    </row>
+    <row r="4345">
+      <c r="A4345" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4345" t="s">
+        <v>8101</v>
+      </c>
+      <c r="C4345" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4345" t="s">
+        <v>8102</v>
+      </c>
+    </row>
+    <row r="4346">
+      <c r="A4346" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4346" t="s">
+        <v>8103</v>
+      </c>
+      <c r="C4346" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4346" t="s">
+        <v>8104</v>
+      </c>
+    </row>
+    <row r="4347">
+      <c r="A4347" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4347" t="s">
+        <v>8105</v>
+      </c>
+      <c r="C4347" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4347" t="s">
+        <v>8106</v>
+      </c>
+    </row>
+    <row r="4348">
+      <c r="A4348" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4348" t="s">
+        <v>8107</v>
+      </c>
+      <c r="C4348" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4348" t="s">
+        <v>8108</v>
+      </c>
+    </row>
+    <row r="4349">
+      <c r="A4349" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4349" t="s">
+        <v>8109</v>
+      </c>
+      <c r="C4349" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4349" t="s">
+        <v>8110</v>
+      </c>
+    </row>
+    <row r="4350">
+      <c r="A4350" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4350" t="s">
+        <v>8111</v>
+      </c>
+      <c r="C4350" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4350" t="s">
+        <v>8112</v>
+      </c>
+    </row>
+    <row r="4351">
+      <c r="A4351" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4351" t="s">
+        <v>8113</v>
+      </c>
+      <c r="C4351" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4351" t="s">
+        <v>8114</v>
+      </c>
+    </row>
+    <row r="4352">
+      <c r="A4352" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4352" t="s">
+        <v>8115</v>
+      </c>
+      <c r="C4352" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4352" t="s">
+        <v>8116</v>
+      </c>
+    </row>
+    <row r="4353">
+      <c r="A4353" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4353" t="s">
+        <v>8117</v>
+      </c>
+      <c r="C4353" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4353" t="s">
+        <v>8118</v>
+      </c>
+    </row>
+    <row r="4354">
+      <c r="A4354" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4354" t="s">
+        <v>8119</v>
+      </c>
+      <c r="C4354" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4354" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="4355">
+      <c r="A4355" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4355" t="s">
+        <v>8120</v>
+      </c>
+      <c r="C4355" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4355" t="s">
+        <v>6099</v>
+      </c>
+    </row>
+    <row r="4356">
+      <c r="A4356" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4356" t="s">
+        <v>8121</v>
+      </c>
+      <c r="C4356" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4356" t="s">
+        <v>7440</v>
+      </c>
+    </row>
+    <row r="4357">
+      <c r="A4357" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4357" t="s">
+        <v>8122</v>
+      </c>
+      <c r="C4357" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4357" t="s">
+        <v>8123</v>
+      </c>
+    </row>
+    <row r="4358">
+      <c r="A4358" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4358" t="s">
+        <v>8124</v>
+      </c>
+      <c r="C4358" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4358" t="s">
+        <v>8125</v>
+      </c>
+    </row>
+    <row r="4359">
+      <c r="A4359" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4359" t="s">
+        <v>8126</v>
+      </c>
+      <c r="C4359" t="s">
+        <v>8127</v>
+      </c>
+      <c r="D4359" t="s">
+        <v>6867</v>
+      </c>
+    </row>
+    <row r="4360">
+      <c r="A4360" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4360" t="s">
+        <v>8128</v>
+      </c>
+      <c r="C4360" t="s">
+        <v>8127</v>
+      </c>
+      <c r="D4360" t="s">
+        <v>8129</v>
+      </c>
+    </row>
+    <row r="4361">
+      <c r="A4361" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4361" t="s">
+        <v>8130</v>
+      </c>
+      <c r="C4361" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4361" t="s">
+        <v>8131</v>
+      </c>
+    </row>
+    <row r="4362">
+      <c r="A4362" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4362" t="s">
+        <v>8132</v>
+      </c>
+      <c r="C4362" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4362" t="s">
+        <v>8133</v>
+      </c>
+    </row>
+    <row r="4363">
+      <c r="A4363" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4363" t="s">
+        <v>8134</v>
+      </c>
+      <c r="C4363" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4363" t="s">
+        <v>8135</v>
+      </c>
+    </row>
+    <row r="4364">
+      <c r="A4364" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4364" t="s">
+        <v>8136</v>
+      </c>
+      <c r="C4364" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4364" t="s">
+        <v>8137</v>
+      </c>
+    </row>
+    <row r="4365">
+      <c r="A4365" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4365" t="s">
+        <v>8138</v>
+      </c>
+      <c r="C4365" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4365" t="s">
+        <v>6377</v>
+      </c>
+    </row>
+    <row r="4366">
+      <c r="A4366" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4366" t="s">
+        <v>8139</v>
+      </c>
+      <c r="C4366" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4366" t="s">
+        <v>8140</v>
+      </c>
+    </row>
+    <row r="4367">
+      <c r="A4367" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4367" t="s">
+        <v>8141</v>
+      </c>
+      <c r="C4367" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4367" t="s">
+        <v>8142</v>
+      </c>
+    </row>
+    <row r="4368">
+      <c r="A4368" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4368" t="s">
+        <v>8143</v>
+      </c>
+      <c r="C4368" t="s">
+        <v>637</v>
+      </c>
+      <c r="D4368" t="s">
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="4369">
+      <c r="A4369" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4369" t="s">
+        <v>8145</v>
+      </c>
+      <c r="C4369" t="s">
+        <v>637</v>
+      </c>
+      <c r="D4369" t="s">
+        <v>8146</v>
+      </c>
+    </row>
+    <row r="4370">
+      <c r="A4370" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4370" t="s">
+        <v>8147</v>
+      </c>
+      <c r="C4370" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4370" t="s">
+        <v>8148</v>
+      </c>
+    </row>
+    <row r="4371">
+      <c r="A4371" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4371" t="s">
+        <v>8149</v>
+      </c>
+      <c r="C4371" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4371" t="s">
+        <v>5939</v>
+      </c>
+    </row>
+    <row r="4372">
+      <c r="A4372" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4372" t="s">
+        <v>8150</v>
+      </c>
+      <c r="C4372" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4372" t="s">
+        <v>8151</v>
+      </c>
+    </row>
+    <row r="4373">
+      <c r="A4373" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4373" t="s">
+        <v>8152</v>
+      </c>
+      <c r="C4373" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4373" t="s">
+        <v>8153</v>
+      </c>
+    </row>
+    <row r="4374">
+      <c r="A4374" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4374" t="s">
+        <v>8154</v>
+      </c>
+      <c r="C4374" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4374" t="s">
+        <v>6830</v>
+      </c>
+    </row>
+    <row r="4375">
+      <c r="A4375" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4375" t="s">
+        <v>8155</v>
+      </c>
+      <c r="C4375" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4375" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="4376">
+      <c r="A4376" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4376" t="s">
+        <v>8156</v>
+      </c>
+      <c r="C4376" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4376" t="s">
+        <v>7631</v>
+      </c>
+    </row>
+    <row r="4377">
+      <c r="A4377" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4377" t="s">
+        <v>8157</v>
+      </c>
+      <c r="C4377" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4377" t="s">
+        <v>8158</v>
+      </c>
+    </row>
+    <row r="4378">
+      <c r="A4378" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4378" t="s">
+        <v>8159</v>
+      </c>
+      <c r="C4378" t="s">
+        <v>650</v>
+      </c>
+      <c r="D4378" t="s">
+        <v>8160</v>
+      </c>
+    </row>
+    <row r="4379">
+      <c r="A4379" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4379" t="s">
+        <v>8161</v>
+      </c>
+      <c r="C4379" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4379" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="4380">
+      <c r="A4380" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4380" t="s">
+        <v>8162</v>
+      </c>
+      <c r="C4380" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4380" t="s">
+        <v>8163</v>
+      </c>
+    </row>
+    <row r="4381">
+      <c r="A4381" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4381" t="s">
+        <v>8164</v>
+      </c>
+      <c r="C4381" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4381" t="s">
+        <v>3481</v>
+      </c>
+    </row>
+    <row r="4382">
+      <c r="A4382" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4382" t="s">
+        <v>8165</v>
+      </c>
+      <c r="C4382" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4382" t="s">
+        <v>8166</v>
+      </c>
+    </row>
+    <row r="4383">
+      <c r="A4383" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4383" t="s">
+        <v>8167</v>
+      </c>
+      <c r="C4383" t="s">
+        <v>8088</v>
+      </c>
+      <c r="D4383" t="s">
+        <v>8168</v>
+      </c>
+    </row>
+    <row r="4384">
+      <c r="A4384" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4384" t="s">
+        <v>8169</v>
+      </c>
+      <c r="C4384" t="s">
+        <v>8170</v>
+      </c>
+      <c r="D4384" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="4385">
+      <c r="A4385" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4385" t="s">
+        <v>8171</v>
+      </c>
+      <c r="C4385" t="s">
+        <v>8046</v>
+      </c>
+      <c r="D4385" t="s">
+        <v>8172</v>
+      </c>
+    </row>
+    <row r="4386">
+      <c r="A4386" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4386" t="s">
+        <v>8173</v>
+      </c>
+      <c r="C4386" t="s">
+        <v>661</v>
+      </c>
+      <c r="D4386" t="s">
+        <v>8174</v>
+      </c>
+    </row>
+    <row r="4387">
+      <c r="A4387" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4387" t="s">
+        <v>8175</v>
+      </c>
+      <c r="C4387" t="s">
+        <v>7961</v>
+      </c>
+      <c r="D4387" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="4388">
+      <c r="A4388" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4388" t="s">
+        <v>8176</v>
+      </c>
+      <c r="C4388" t="s">
+        <v>773</v>
+      </c>
+      <c r="D4388" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4389">
+      <c r="A4389" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4389" t="s">
+        <v>8177</v>
+      </c>
+      <c r="C4389" t="s">
+        <v>669</v>
+      </c>
+      <c r="D4389" t="s">
+        <v>8178</v>
+      </c>
+    </row>
+    <row r="4390">
+      <c r="A4390" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4390" t="s">
+        <v>8179</v>
+      </c>
+      <c r="C4390" t="s">
+        <v>7943</v>
+      </c>
+      <c r="D4390" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4391">
+      <c r="A4391" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4391" t="s">
+        <v>8180</v>
+      </c>
+      <c r="C4391" t="s">
+        <v>658</v>
+      </c>
+      <c r="D4391" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="4392">
+      <c r="A4392" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4392" t="s">
+        <v>8181</v>
+      </c>
+      <c r="C4392" t="s">
+        <v>8052</v>
+      </c>
+      <c r="D4392" t="s">
+        <v>8182</v>
+      </c>
+    </row>
+    <row r="4393">
+      <c r="A4393" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4393" t="s">
+        <v>8183</v>
+      </c>
+      <c r="C4393" t="s">
+        <v>8052</v>
+      </c>
+      <c r="D4393" t="s">
+        <v>8184</v>
+      </c>
+    </row>
+    <row r="4394">
+      <c r="A4394" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4394" t="s">
+        <v>8185</v>
+      </c>
+      <c r="C4394" t="s">
+        <v>7951</v>
+      </c>
+      <c r="D4394" t="s">
+        <v>8186</v>
+      </c>
+    </row>
+    <row r="4395">
+      <c r="A4395" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4395" t="s">
+        <v>8187</v>
+      </c>
+      <c r="C4395" t="s">
+        <v>8024</v>
+      </c>
+      <c r="D4395" t="s">
+        <v>8188</v>
+      </c>
+    </row>
+    <row r="4396">
+      <c r="A4396" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4396" t="s">
+        <v>8189</v>
+      </c>
+      <c r="C4396" t="s">
+        <v>7946</v>
+      </c>
+      <c r="D4396" t="s">
+        <v>4044</v>
+      </c>
+    </row>
+    <row r="4397">
+      <c r="A4397" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4397" t="s">
+        <v>8190</v>
+      </c>
+      <c r="C4397" t="s">
+        <v>770</v>
+      </c>
+      <c r="D4397" t="s">
+        <v>7249</v>
+      </c>
+    </row>
+    <row r="4398">
+      <c r="A4398" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4398" t="s">
+        <v>8191</v>
+      </c>
+      <c r="C4398" t="s">
+        <v>672</v>
+      </c>
+      <c r="D4398" t="s">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="4399">
+      <c r="A4399" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4399" t="s">
+        <v>8193</v>
+      </c>
+      <c r="C4399" t="s">
+        <v>672</v>
+      </c>
+      <c r="D4399" t="s">
+        <v>8194</v>
+      </c>
+    </row>
+    <row r="4400">
+      <c r="A4400" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4400" t="s">
+        <v>8195</v>
+      </c>
+      <c r="C4400" t="s">
+        <v>770</v>
+      </c>
+      <c r="D4400" t="s">
+        <v>8196</v>
+      </c>
+    </row>
+    <row r="4401">
+      <c r="A4401" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4401" t="s">
+        <v>8197</v>
+      </c>
+      <c r="C4401" t="s">
+        <v>7957</v>
+      </c>
+      <c r="D4401" t="s">
+        <v>8198</v>
+      </c>
+    </row>
+    <row r="4402">
+      <c r="A4402" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4402" t="s">
+        <v>8199</v>
+      </c>
+      <c r="C4402" t="s">
+        <v>8035</v>
+      </c>
+      <c r="D4402" t="s">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="4403">
+      <c r="A4403" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4403" t="s">
+        <v>8201</v>
+      </c>
+      <c r="C4403" t="s">
+        <v>8170</v>
+      </c>
+      <c r="D4403" t="s">
+        <v>8202</v>
+      </c>
+    </row>
+    <row r="4404">
+      <c r="A4404" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4404" t="s">
+        <v>8203</v>
+      </c>
+      <c r="C4404" t="s">
+        <v>8091</v>
+      </c>
+      <c r="D4404" t="s">
+        <v>7760</v>
+      </c>
+    </row>
+    <row r="4405">
+      <c r="A4405" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4405" t="s">
+        <v>8204</v>
+      </c>
+      <c r="C4405" t="s">
+        <v>8080</v>
+      </c>
+      <c r="D4405" t="s">
+        <v>7138</v>
+      </c>
+    </row>
+    <row r="4406">
+      <c r="A4406" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4406" t="s">
+        <v>8205</v>
+      </c>
+      <c r="C4406" t="s">
+        <v>8080</v>
+      </c>
+      <c r="D4406" t="s">
+        <v>4361</v>
+      </c>
+    </row>
+    <row r="4407">
+      <c r="A4407" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4407" t="s">
+        <v>8206</v>
+      </c>
+      <c r="C4407" t="s">
+        <v>8052</v>
+      </c>
+      <c r="D4407" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="4408">
+      <c r="A4408" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4408" t="s">
+        <v>8207</v>
+      </c>
+      <c r="C4408" t="s">
+        <v>664</v>
+      </c>
+      <c r="D4408" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4409">
+      <c r="A4409" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4409" t="s">
+        <v>8208</v>
+      </c>
+      <c r="C4409" t="s">
+        <v>666</v>
+      </c>
+      <c r="D4409" t="s">
+        <v>8209</v>
+      </c>
+    </row>
+    <row r="4410">
+      <c r="A4410" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4410" t="s">
+        <v>8210</v>
+      </c>
+      <c r="C4410" t="s">
+        <v>773</v>
+      </c>
+      <c r="D4410" t="s">
+        <v>8211</v>
+      </c>
+    </row>
+    <row r="4411">
+      <c r="A4411" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4411" t="s">
+        <v>8212</v>
+      </c>
+      <c r="C4411" t="s">
+        <v>7961</v>
+      </c>
+      <c r="D4411" t="s">
+        <v>8213</v>
+      </c>
+    </row>
+    <row r="4412">
+      <c r="A4412" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4412" t="s">
+        <v>8214</v>
+      </c>
+      <c r="C4412" t="s">
+        <v>7957</v>
+      </c>
+      <c r="D4412" t="s">
+        <v>8215</v>
+      </c>
+    </row>
+    <row r="4413">
+      <c r="A4413" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4413" t="s">
+        <v>8216</v>
+      </c>
+      <c r="C4413" t="s">
+        <v>661</v>
+      </c>
+      <c r="D4413" t="s">
+        <v>8217</v>
+      </c>
+    </row>
+    <row r="4414">
+      <c r="A4414" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4414" t="s">
+        <v>8218</v>
+      </c>
+      <c r="C4414" t="s">
+        <v>8035</v>
+      </c>
+      <c r="D4414" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="4415">
+      <c r="A4415" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4415" t="s">
+        <v>8219</v>
+      </c>
+      <c r="C4415" t="s">
+        <v>8035</v>
+      </c>
+      <c r="D4415" t="s">
+        <v>3636</v>
+      </c>
+    </row>
+    <row r="4416">
+      <c r="A4416" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4416" t="s">
+        <v>8220</v>
+      </c>
+      <c r="C4416" t="s">
+        <v>661</v>
+      </c>
+      <c r="D4416" t="s">
+        <v>6862</v>
+      </c>
+    </row>
+    <row r="4417">
+      <c r="A4417" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4417" t="s">
+        <v>8221</v>
+      </c>
+      <c r="C4417" t="s">
+        <v>7957</v>
+      </c>
+      <c r="D4417" t="s">
+        <v>8222</v>
+      </c>
+    </row>
+    <row r="4418">
+      <c r="A4418" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4418" t="s">
+        <v>8223</v>
+      </c>
+      <c r="C4418" t="s">
+        <v>773</v>
+      </c>
+      <c r="D4418" t="s">
+        <v>8224</v>
+      </c>
+    </row>
+    <row r="4419">
+      <c r="A4419" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4419" t="s">
+        <v>8225</v>
+      </c>
+      <c r="C4419" t="s">
+        <v>675</v>
+      </c>
+      <c r="D4419" t="s">
+        <v>8226</v>
+      </c>
+    </row>
+    <row r="4420">
+      <c r="A4420" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4420" t="s">
+        <v>8227</v>
+      </c>
+      <c r="C4420" t="s">
+        <v>785</v>
+      </c>
+      <c r="D4420" t="s">
+        <v>8228</v>
+      </c>
+    </row>
+    <row r="4421">
+      <c r="A4421" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4421" t="s">
+        <v>8229</v>
+      </c>
+      <c r="C4421" t="s">
+        <v>788</v>
+      </c>
+      <c r="D4421" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4422">
+      <c r="A4422" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4422" t="s">
+        <v>8230</v>
+      </c>
+      <c r="C4422" t="s">
+        <v>7886</v>
+      </c>
+      <c r="D4422" t="s">
+        <v>4699</v>
+      </c>
+    </row>
+    <row r="4423">
+      <c r="A4423" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4423" t="s">
+        <v>8231</v>
+      </c>
+      <c r="C4423" t="s">
+        <v>7886</v>
+      </c>
+      <c r="D4423" t="s">
+        <v>7823</v>
+      </c>
+    </row>
+    <row r="4424">
+      <c r="A4424" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4424" t="s">
+        <v>8232</v>
+      </c>
+      <c r="C4424" t="s">
+        <v>7914</v>
+      </c>
+      <c r="D4424" t="s">
+        <v>8233</v>
+      </c>
+    </row>
+    <row r="4425">
+      <c r="A4425" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4425" t="s">
+        <v>8234</v>
+      </c>
+      <c r="C4425" t="s">
+        <v>675</v>
+      </c>
+      <c r="D4425" t="s">
+        <v>8235</v>
+      </c>
+    </row>
+    <row r="4426">
+      <c r="A4426" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4426" t="s">
+        <v>8236</v>
+      </c>
+      <c r="C4426" t="s">
+        <v>744</v>
+      </c>
+      <c r="D4426" t="s">
+        <v>6048</v>
+      </c>
+    </row>
+    <row r="4427">
+      <c r="A4427" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4427" t="s">
+        <v>8237</v>
+      </c>
+      <c r="C4427" t="s">
+        <v>785</v>
+      </c>
+      <c r="D4427" t="s">
+        <v>8238</v>
+      </c>
+    </row>
+    <row r="4428">
+      <c r="A4428" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4428" t="s">
+        <v>8239</v>
+      </c>
+      <c r="C4428" t="s">
+        <v>788</v>
+      </c>
+      <c r="D4428" t="s">
+        <v>6855</v>
+      </c>
+    </row>
+    <row r="4429">
+      <c r="A4429" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4429" t="s">
+        <v>8240</v>
+      </c>
+      <c r="C4429" t="s">
+        <v>792</v>
+      </c>
+      <c r="D4429" t="s">
+        <v>7440</v>
+      </c>
+    </row>
+    <row r="4430">
+      <c r="A4430" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4430" t="s">
+        <v>8241</v>
+      </c>
+      <c r="C4430" t="s">
+        <v>690</v>
+      </c>
+      <c r="D4430" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="4431">
+      <c r="A4431" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4431" t="s">
+        <v>8242</v>
+      </c>
+      <c r="C4431" t="s">
+        <v>693</v>
+      </c>
+      <c r="D4431" t="s">
+        <v>8243</v>
+      </c>
+    </row>
+    <row r="4432">
+      <c r="A4432" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4432" t="s">
+        <v>8244</v>
+      </c>
+      <c r="C4432" t="s">
+        <v>738</v>
+      </c>
+      <c r="D4432" t="s">
+        <v>8245</v>
+      </c>
+    </row>
+    <row r="4433">
+      <c r="A4433" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4433" t="s">
+        <v>8246</v>
+      </c>
+      <c r="C4433" t="s">
+        <v>738</v>
+      </c>
+      <c r="D4433" t="s">
+        <v>8247</v>
+      </c>
+    </row>
+    <row r="4434">
+      <c r="A4434" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4434" t="s">
+        <v>8248</v>
+      </c>
+      <c r="C4434" t="s">
+        <v>7907</v>
+      </c>
+      <c r="D4434" t="s">
+        <v>8249</v>
+      </c>
+    </row>
+    <row r="4435">
+      <c r="A4435" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4435" t="s">
+        <v>8250</v>
+      </c>
+      <c r="C4435" t="s">
+        <v>741</v>
+      </c>
+      <c r="D4435" t="s">
+        <v>7489</v>
+      </c>
+    </row>
+    <row r="4436">
+      <c r="A4436" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4436" t="s">
+        <v>8251</v>
+      </c>
+      <c r="C4436" t="s">
+        <v>678</v>
+      </c>
+      <c r="D4436" t="s">
+        <v>7064</v>
+      </c>
+    </row>
+    <row r="4437">
+      <c r="A4437" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4437" t="s">
+        <v>8252</v>
+      </c>
+      <c r="C4437" t="s">
+        <v>675</v>
+      </c>
+      <c r="D4437" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="4438">
+      <c r="A4438" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4438" t="s">
+        <v>8253</v>
+      </c>
+      <c r="C4438" t="s">
+        <v>675</v>
+      </c>
+      <c r="D4438" t="s">
+        <v>8254</v>
+      </c>
+    </row>
+    <row r="4439">
+      <c r="A4439" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4439" t="s">
+        <v>8255</v>
+      </c>
+      <c r="C4439" t="s">
+        <v>678</v>
+      </c>
+      <c r="D4439" t="s">
+        <v>8256</v>
+      </c>
+    </row>
+    <row r="4440">
+      <c r="A4440" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4440" t="s">
+        <v>8257</v>
+      </c>
+      <c r="C4440" t="s">
+        <v>684</v>
+      </c>
+      <c r="D4440" t="s">
+        <v>5483</v>
+      </c>
+    </row>
+    <row r="4441">
+      <c r="A4441" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4441" t="s">
+        <v>8258</v>
+      </c>
+      <c r="C4441" t="s">
+        <v>7890</v>
+      </c>
+      <c r="D4441" t="s">
+        <v>8259</v>
+      </c>
+    </row>
+    <row r="4442">
+      <c r="A4442" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4442" t="s">
+        <v>8260</v>
+      </c>
+      <c r="C4442" t="s">
+        <v>800</v>
+      </c>
+      <c r="D4442" t="s">
+        <v>7070</v>
+      </c>
+    </row>
+    <row r="4443">
+      <c r="A4443" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4443" t="s">
+        <v>8261</v>
+      </c>
+      <c r="C4443" t="s">
+        <v>712</v>
+      </c>
+      <c r="D4443" t="s">
+        <v>8262</v>
+      </c>
+    </row>
+    <row r="4444">
+      <c r="A4444" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4444" t="s">
+        <v>8263</v>
+      </c>
+      <c r="C4444" t="s">
+        <v>712</v>
+      </c>
+      <c r="D4444" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="4445">
+      <c r="A4445" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4445" t="s">
+        <v>8264</v>
+      </c>
+      <c r="C4445" t="s">
+        <v>696</v>
+      </c>
+      <c r="D4445" t="s">
+        <v>8265</v>
+      </c>
+    </row>
+    <row r="4446">
+      <c r="A4446" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4446" t="s">
+        <v>8266</v>
+      </c>
+      <c r="C4446" t="s">
+        <v>690</v>
+      </c>
+      <c r="D4446" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="4447">
+      <c r="A4447" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4447" t="s">
+        <v>8267</v>
+      </c>
+      <c r="C4447" t="s">
+        <v>684</v>
+      </c>
+      <c r="D4447" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4448">
+      <c r="A4448" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4448" t="s">
+        <v>8268</v>
+      </c>
+      <c r="C4448" t="s">
+        <v>741</v>
+      </c>
+      <c r="D4448" t="s">
+        <v>8269</v>
+      </c>
+    </row>
+    <row r="4449">
+      <c r="A4449" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4449" t="s">
+        <v>8270</v>
+      </c>
+      <c r="C4449" t="s">
+        <v>687</v>
+      </c>
+      <c r="D4449" t="s">
+        <v>8271</v>
+      </c>
+    </row>
+    <row r="4450">
+      <c r="A4450" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4450" t="s">
+        <v>8272</v>
+      </c>
+      <c r="C4450" t="s">
+        <v>7907</v>
+      </c>
+      <c r="D4450" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="4451">
+      <c r="A4451" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4451" t="s">
+        <v>8273</v>
+      </c>
+      <c r="C4451" t="s">
+        <v>7783</v>
+      </c>
+      <c r="D4451" t="s">
+        <v>4079</v>
+      </c>
+    </row>
+    <row r="4452">
+      <c r="A4452" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4452" t="s">
+        <v>8274</v>
+      </c>
+      <c r="C4452" t="s">
+        <v>722</v>
+      </c>
+      <c r="D4452" t="s">
+        <v>8275</v>
+      </c>
+    </row>
+    <row r="4453">
+      <c r="A4453" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4453" t="s">
+        <v>8276</v>
+      </c>
+      <c r="C4453" t="s">
+        <v>813</v>
+      </c>
+      <c r="D4453" t="s">
+        <v>8172</v>
+      </c>
+    </row>
+    <row r="4454">
+      <c r="A4454" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4454" t="s">
+        <v>8277</v>
+      </c>
+      <c r="C4454" t="s">
+        <v>816</v>
+      </c>
+      <c r="D4454" t="s">
+        <v>6643</v>
+      </c>
+    </row>
+    <row r="4455">
+      <c r="A4455" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4455" t="s">
+        <v>8278</v>
+      </c>
+      <c r="C4455" t="s">
+        <v>728</v>
+      </c>
+      <c r="D4455" t="s">
+        <v>8279</v>
+      </c>
+    </row>
+    <row r="4456">
+      <c r="A4456" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4456" t="s">
+        <v>8280</v>
+      </c>
+      <c r="C4456" t="s">
+        <v>728</v>
+      </c>
+      <c r="D4456" t="s">
+        <v>6684</v>
+      </c>
+    </row>
+    <row r="4457">
+      <c r="A4457" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4457" t="s">
+        <v>8281</v>
+      </c>
+      <c r="C4457" t="s">
+        <v>7292</v>
+      </c>
+      <c r="D4457" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="4458">
+      <c r="A4458" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4458" t="s">
+        <v>8282</v>
+      </c>
+      <c r="C4458" t="s">
+        <v>725</v>
+      </c>
+      <c r="D4458" t="s">
+        <v>8283</v>
+      </c>
+    </row>
+    <row r="4459">
+      <c r="A4459" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4459" t="s">
+        <v>8284</v>
+      </c>
+      <c r="C4459" t="s">
+        <v>7292</v>
+      </c>
+      <c r="D4459" t="s">
+        <v>8285</v>
+      </c>
+    </row>
+    <row r="4460">
+      <c r="A4460" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4460" t="s">
+        <v>8286</v>
+      </c>
+      <c r="C4460" t="s">
+        <v>813</v>
+      </c>
+      <c r="D4460" t="s">
+        <v>6623</v>
+      </c>
+    </row>
+    <row r="4461">
+      <c r="A4461" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4461" t="s">
+        <v>8287</v>
+      </c>
+      <c r="C4461" t="s">
+        <v>731</v>
+      </c>
+      <c r="D4461" t="s">
+        <v>8288</v>
+      </c>
+    </row>
+    <row r="4462">
+      <c r="A4462" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4462" t="s">
+        <v>8289</v>
+      </c>
+      <c r="C4462" t="s">
+        <v>833</v>
+      </c>
+      <c r="D4462" t="s">
+        <v>8290</v>
+      </c>
+    </row>
+    <row r="4463">
+      <c r="A4463" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4463" t="s">
+        <v>8291</v>
+      </c>
+      <c r="C4463" t="s">
+        <v>848</v>
+      </c>
+      <c r="D4463" t="s">
+        <v>8292</v>
+      </c>
+    </row>
+    <row r="4464">
+      <c r="A4464" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4464" t="s">
+        <v>8293</v>
+      </c>
+      <c r="C4464" t="s">
+        <v>819</v>
+      </c>
+      <c r="D4464" t="s">
+        <v>8294</v>
+      </c>
+    </row>
+    <row r="4465">
+      <c r="A4465" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4465" t="s">
+        <v>8295</v>
+      </c>
+      <c r="C4465" t="s">
+        <v>816</v>
+      </c>
+      <c r="D4465" t="s">
+        <v>8296</v>
+      </c>
+    </row>
+    <row r="4466">
+      <c r="A4466" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4466" t="s">
+        <v>8297</v>
+      </c>
+      <c r="C4466" t="s">
+        <v>800</v>
+      </c>
+      <c r="D4466" t="s">
+        <v>8298</v>
+      </c>
+    </row>
+    <row r="4467">
+      <c r="A4467" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4467" t="s">
+        <v>8299</v>
+      </c>
+      <c r="C4467" t="s">
+        <v>7907</v>
+      </c>
+      <c r="D4467" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="4468">
+      <c r="A4468" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4468" t="s">
+        <v>8300</v>
+      </c>
+      <c r="C4468" t="s">
+        <v>687</v>
+      </c>
+      <c r="D4468" t="s">
+        <v>8301</v>
+      </c>
+    </row>
+    <row r="4469">
+      <c r="A4469" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4469" t="s">
+        <v>8302</v>
+      </c>
+      <c r="C4469" t="s">
+        <v>792</v>
+      </c>
+      <c r="D4469" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="4470">
+      <c r="A4470" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4470" t="s">
+        <v>8303</v>
+      </c>
+      <c r="C4470" t="s">
+        <v>7890</v>
+      </c>
+      <c r="D4470" t="s">
+        <v>8304</v>
+      </c>
+    </row>
+    <row r="4471">
+      <c r="A4471" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4471" t="s">
+        <v>8305</v>
+      </c>
+      <c r="C4471" t="s">
+        <v>7893</v>
+      </c>
+      <c r="D4471" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="4472">
+      <c r="A4472" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4472" t="s">
+        <v>8306</v>
+      </c>
+      <c r="C4472" t="s">
+        <v>7907</v>
+      </c>
+      <c r="D4472" t="s">
+        <v>8307</v>
+      </c>
+    </row>
+    <row r="4473">
+      <c r="A4473" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4473" t="s">
+        <v>8308</v>
+      </c>
+      <c r="C4473" t="s">
+        <v>738</v>
+      </c>
+      <c r="D4473" t="s">
+        <v>8309</v>
+      </c>
+    </row>
+    <row r="4474">
+      <c r="A4474" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4474" t="s">
+        <v>8310</v>
+      </c>
+      <c r="C4474" t="s">
+        <v>693</v>
+      </c>
+      <c r="D4474" t="s">
+        <v>8311</v>
+      </c>
+    </row>
+    <row r="4475">
+      <c r="A4475" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4475" t="s">
+        <v>8312</v>
+      </c>
+      <c r="C4475" t="s">
+        <v>741</v>
+      </c>
+      <c r="D4475" t="s">
+        <v>8313</v>
+      </c>
+    </row>
+    <row r="4476">
+      <c r="A4476" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4476" t="s">
+        <v>8314</v>
+      </c>
+      <c r="C4476" t="s">
+        <v>780</v>
+      </c>
+      <c r="D4476" t="s">
+        <v>7345</v>
+      </c>
+    </row>
+    <row r="4477">
+      <c r="A4477" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4477" t="s">
+        <v>8315</v>
+      </c>
+      <c r="C4477" t="s">
+        <v>669</v>
+      </c>
+      <c r="D4477" t="s">
+        <v>8316</v>
+      </c>
+    </row>
+    <row r="4478">
+      <c r="A4478" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4478" t="s">
+        <v>8317</v>
+      </c>
+      <c r="C4478" t="s">
+        <v>770</v>
+      </c>
+      <c r="D4478" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="4479">
+      <c r="A4479" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4479" t="s">
+        <v>8318</v>
+      </c>
+      <c r="C4479" t="s">
+        <v>672</v>
+      </c>
+      <c r="D4479" t="s">
+        <v>8319</v>
+      </c>
+    </row>
+    <row r="4480">
+      <c r="A4480" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4480" t="s">
+        <v>8320</v>
+      </c>
+      <c r="C4480" t="s">
+        <v>744</v>
+      </c>
+      <c r="D4480" t="s">
+        <v>8321</v>
+      </c>
+    </row>
+    <row r="4481">
+      <c r="A4481" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4481" t="s">
+        <v>8322</v>
+      </c>
+      <c r="C4481" t="s">
+        <v>785</v>
+      </c>
+      <c r="D4481" t="s">
+        <v>8323</v>
+      </c>
+    </row>
+    <row r="4482">
+      <c r="A4482" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4482" t="s">
+        <v>8324</v>
+      </c>
+      <c r="C4482" t="s">
+        <v>675</v>
+      </c>
+      <c r="D4482" t="s">
+        <v>8325</v>
+      </c>
+    </row>
+    <row r="4483">
+      <c r="A4483" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4483" t="s">
+        <v>8326</v>
+      </c>
+      <c r="C4483" t="s">
+        <v>8024</v>
+      </c>
+      <c r="D4483" t="s">
+        <v>8327</v>
+      </c>
+    </row>
+    <row r="4484">
+      <c r="A4484" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4484" t="s">
+        <v>8328</v>
+      </c>
+      <c r="C4484" t="s">
+        <v>7951</v>
+      </c>
+      <c r="D4484" t="s">
+        <v>8329</v>
+      </c>
+    </row>
+    <row r="4485">
+      <c r="A4485" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4485" t="s">
+        <v>8330</v>
+      </c>
+      <c r="C4485" t="s">
+        <v>661</v>
+      </c>
+      <c r="D4485" t="s">
+        <v>7471</v>
+      </c>
+    </row>
+    <row r="4486">
+      <c r="A4486" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4486" t="s">
+        <v>8331</v>
+      </c>
+      <c r="C4486" t="s">
+        <v>8024</v>
+      </c>
+      <c r="D4486" t="s">
+        <v>8332</v>
+      </c>
+    </row>
+    <row r="4487">
+      <c r="A4487" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4487" t="s">
+        <v>8333</v>
+      </c>
+      <c r="C4487" t="s">
+        <v>672</v>
+      </c>
+      <c r="D4487" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="4488">
+      <c r="A4488" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4488" t="s">
+        <v>8334</v>
+      </c>
+      <c r="C4488" t="s">
+        <v>747</v>
+      </c>
+      <c r="D4488" t="s">
+        <v>8335</v>
+      </c>
+    </row>
+    <row r="4489">
+      <c r="A4489" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4489" t="s">
+        <v>8336</v>
+      </c>
+      <c r="C4489" t="s">
+        <v>780</v>
+      </c>
+      <c r="D4489" t="s">
+        <v>8337</v>
+      </c>
+    </row>
+    <row r="4490">
+      <c r="A4490" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4490" t="s">
+        <v>8338</v>
+      </c>
+      <c r="C4490" t="s">
+        <v>675</v>
+      </c>
+      <c r="D4490" t="s">
+        <v>8339</v>
+      </c>
+    </row>
+    <row r="4491">
+      <c r="A4491" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4491" t="s">
+        <v>8340</v>
+      </c>
+      <c r="C4491" t="s">
+        <v>678</v>
+      </c>
+      <c r="D4491" t="s">
+        <v>4082</v>
+      </c>
+    </row>
+    <row r="4492">
+      <c r="A4492" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4492" t="s">
+        <v>8341</v>
+      </c>
+      <c r="C4492" t="s">
+        <v>788</v>
+      </c>
+      <c r="D4492" t="s">
+        <v>8342</v>
+      </c>
+    </row>
+    <row r="4493">
+      <c r="A4493" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4493" t="s">
+        <v>8343</v>
+      </c>
+      <c r="C4493" t="s">
+        <v>687</v>
+      </c>
+      <c r="D4493" t="s">
+        <v>8344</v>
+      </c>
+    </row>
+    <row r="4494">
+      <c r="A4494" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4494" t="s">
+        <v>8345</v>
+      </c>
+      <c r="C4494" t="s">
+        <v>693</v>
+      </c>
+      <c r="D4494" t="s">
+        <v>4034</v>
+      </c>
+    </row>
+    <row r="4495">
+      <c r="A4495" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4495" t="s">
+        <v>8346</v>
+      </c>
+      <c r="C4495" t="s">
+        <v>698</v>
+      </c>
+      <c r="D4495" t="s">
+        <v>8347</v>
+      </c>
+    </row>
+    <row r="4496">
+      <c r="A4496" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4496" t="s">
+        <v>8348</v>
+      </c>
+      <c r="C4496" t="s">
+        <v>725</v>
+      </c>
+      <c r="D4496" t="s">
+        <v>8349</v>
+      </c>
+    </row>
+    <row r="4497">
+      <c r="A4497" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4497" t="s">
+        <v>8350</v>
+      </c>
+      <c r="C4497" t="s">
+        <v>833</v>
+      </c>
+      <c r="D4497" t="s">
+        <v>7050</v>
+      </c>
+    </row>
+    <row r="4498">
+      <c r="A4498" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4498" t="s">
+        <v>8351</v>
+      </c>
+      <c r="C4498" t="s">
+        <v>824</v>
+      </c>
+      <c r="D4498" t="s">
+        <v>8352</v>
+      </c>
+    </row>
+    <row r="4499">
+      <c r="A4499" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4499" t="s">
+        <v>8353</v>
+      </c>
+      <c r="C4499" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D4499" t="s">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="4500">
+      <c r="A4500" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4500" t="s">
+        <v>8354</v>
+      </c>
+      <c r="C4500" t="s">
+        <v>857</v>
+      </c>
+      <c r="D4500" t="s">
+        <v>8355</v>
+      </c>
+    </row>
+    <row r="4501">
+      <c r="A4501" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4501" t="s">
+        <v>8356</v>
+      </c>
+      <c r="C4501" t="s">
+        <v>863</v>
+      </c>
+      <c r="D4501" t="s">
+        <v>8357</v>
+      </c>
+    </row>
+    <row r="4502">
+      <c r="A4502" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4502" t="s">
+        <v>8358</v>
+      </c>
+      <c r="C4502" t="s">
+        <v>869</v>
+      </c>
+      <c r="D4502" t="s">
+        <v>8359</v>
+      </c>
+    </row>
+    <row r="4503">
+      <c r="A4503" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4503" t="s">
+        <v>8360</v>
+      </c>
+      <c r="C4503" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D4503" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="4504">
+      <c r="A4504" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4504" t="s">
+        <v>8361</v>
+      </c>
+      <c r="C4504" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D4504" t="s">
+        <v>4843</v>
+      </c>
+    </row>
+    <row r="4505">
+      <c r="A4505" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4505" t="s">
+        <v>8362</v>
+      </c>
+      <c r="C4505" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D4505" t="s">
+        <v>8363</v>
+      </c>
+    </row>
+    <row r="4506">
+      <c r="A4506" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4506" t="s">
+        <v>8364</v>
+      </c>
+      <c r="C4506" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D4506" t="s">
+        <v>8365</v>
+      </c>
+    </row>
+    <row r="4507">
+      <c r="A4507" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4507" t="s">
+        <v>8366</v>
+      </c>
+      <c r="C4507" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D4507" t="s">
+        <v>8367</v>
+      </c>
+    </row>
+    <row r="4508">
+      <c r="A4508" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4508" t="s">
+        <v>8368</v>
+      </c>
+      <c r="C4508" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D4508" t="s">
+        <v>8369</v>
+      </c>
+    </row>
+    <row r="4509">
+      <c r="A4509" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4509" t="s">
+        <v>8370</v>
+      </c>
+      <c r="C4509" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D4509" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="4510">
+      <c r="A4510" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4510" t="s">
+        <v>8371</v>
+      </c>
+      <c r="C4510" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D4510" t="s">
+        <v>8372</v>
+      </c>
+    </row>
+    <row r="4511">
+      <c r="A4511" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4511" t="s">
+        <v>8373</v>
+      </c>
+      <c r="C4511" t="s">
+        <v>869</v>
+      </c>
+      <c r="D4511" t="s">
+        <v>8374</v>
+      </c>
+    </row>
+    <row r="4512">
+      <c r="A4512" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4512" t="s">
+        <v>8375</v>
+      </c>
+      <c r="C4512" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D4512" t="s">
+        <v>8376</v>
+      </c>
+    </row>
+    <row r="4513">
+      <c r="A4513" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4513" t="s">
+        <v>8377</v>
+      </c>
+      <c r="C4513" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D4513" t="s">
+        <v>8378</v>
+      </c>
+    </row>
+    <row r="4514">
+      <c r="A4514" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4514" t="s">
+        <v>8379</v>
+      </c>
+      <c r="C4514" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D4514" t="s">
+        <v>8380</v>
+      </c>
+    </row>
+    <row r="4515">
+      <c r="A4515" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4515" t="s">
+        <v>8381</v>
+      </c>
+      <c r="C4515" t="s">
+        <v>872</v>
+      </c>
+      <c r="D4515" t="s">
+        <v>7068</v>
+      </c>
+    </row>
+    <row r="4516">
+      <c r="A4516" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4516" t="s">
+        <v>8382</v>
+      </c>
+      <c r="C4516" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D4516" t="s">
+        <v>4584</v>
+      </c>
+    </row>
+    <row r="4517">
+      <c r="A4517" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4517" t="s">
+        <v>8383</v>
+      </c>
+      <c r="C4517" t="s">
+        <v>866</v>
+      </c>
+      <c r="D4517" t="s">
+        <v>8384</v>
+      </c>
+    </row>
+    <row r="4518">
+      <c r="A4518" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4518" t="s">
+        <v>8385</v>
+      </c>
+      <c r="C4518" t="s">
+        <v>860</v>
+      </c>
+      <c r="D4518" t="s">
+        <v>5277</v>
+      </c>
+    </row>
+    <row r="4519">
+      <c r="A4519" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4519" t="s">
+        <v>8386</v>
+      </c>
+      <c r="C4519" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D4519" t="s">
+        <v>8387</v>
+      </c>
+    </row>
+    <row r="4520">
+      <c r="A4520" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4520" t="s">
+        <v>8388</v>
+      </c>
+      <c r="C4520" t="s">
+        <v>827</v>
+      </c>
+      <c r="D4520" t="s">
+        <v>8389</v>
+      </c>
+    </row>
+    <row r="4521">
+      <c r="A4521" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4521" t="s">
+        <v>8390</v>
+      </c>
+      <c r="C4521" t="s">
+        <v>827</v>
+      </c>
+      <c r="D4521" t="s">
+        <v>8391</v>
+      </c>
+    </row>
+    <row r="4522">
+      <c r="A4522" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4522" t="s">
+        <v>8392</v>
+      </c>
+      <c r="C4522" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D4522" t="s">
+        <v>8393</v>
+      </c>
+    </row>
+    <row r="4523">
+      <c r="A4523" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4523" t="s">
+        <v>8394</v>
+      </c>
+      <c r="C4523" t="s">
+        <v>857</v>
+      </c>
+      <c r="D4523" t="s">
+        <v>6886</v>
+      </c>
+    </row>
+    <row r="4524">
+      <c r="A4524" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4524" t="s">
+        <v>8395</v>
+      </c>
+      <c r="C4524" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D4524" t="s">
+        <v>8396</v>
+      </c>
+    </row>
+    <row r="4525">
+      <c r="A4525" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4525" t="s">
+        <v>8397</v>
+      </c>
+      <c r="C4525" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D4525" t="s">
+        <v>8398</v>
+      </c>
+    </row>
+    <row r="4526">
+      <c r="A4526" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4526" t="s">
+        <v>8399</v>
+      </c>
+      <c r="C4526" t="s">
+        <v>854</v>
+      </c>
+      <c r="D4526" t="s">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="4527">
+      <c r="A4527" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4527" t="s">
+        <v>8401</v>
+      </c>
+      <c r="C4527" t="s">
+        <v>819</v>
+      </c>
+      <c r="D4527" t="s">
+        <v>8402</v>
+      </c>
+    </row>
+    <row r="4528">
+      <c r="A4528" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4528" t="s">
+        <v>8403</v>
+      </c>
+      <c r="C4528" t="s">
+        <v>725</v>
+      </c>
+      <c r="D4528" t="s">
+        <v>8404</v>
+      </c>
+    </row>
+    <row r="4529">
+      <c r="A4529" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4529" t="s">
+        <v>8405</v>
+      </c>
+      <c r="C4529" t="s">
+        <v>696</v>
+      </c>
+      <c r="D4529" t="s">
+        <v>8406</v>
+      </c>
+    </row>
+    <row r="4530">
+      <c r="A4530" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4530" t="s">
+        <v>8407</v>
+      </c>
+      <c r="C4530" t="s">
+        <v>690</v>
+      </c>
+      <c r="D4530" t="s">
+        <v>8408</v>
+      </c>
+    </row>
+    <row r="4531">
+      <c r="A4531" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4531" t="s">
+        <v>8409</v>
+      </c>
+      <c r="C4531" t="s">
+        <v>687</v>
+      </c>
+      <c r="D4531" t="s">
+        <v>8410</v>
+      </c>
+    </row>
+    <row r="4532">
+      <c r="A4532" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4532" t="s">
+        <v>8411</v>
+      </c>
+      <c r="C4532" t="s">
+        <v>7893</v>
+      </c>
+      <c r="D4532" t="s">
+        <v>8412</v>
+      </c>
+    </row>
+    <row r="4533">
+      <c r="A4533" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4533" t="s">
+        <v>8413</v>
+      </c>
+      <c r="C4533" t="s">
+        <v>690</v>
+      </c>
+      <c r="D4533" t="s">
+        <v>7595</v>
+      </c>
+    </row>
+    <row r="4534">
+      <c r="A4534" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4534" t="s">
+        <v>8414</v>
+      </c>
+      <c r="C4534" t="s">
+        <v>738</v>
+      </c>
+      <c r="D4534" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="4535">
+      <c r="A4535" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4535" t="s">
+        <v>8415</v>
+      </c>
+      <c r="C4535" t="s">
+        <v>712</v>
+      </c>
+      <c r="D4535" t="s">
+        <v>8416</v>
+      </c>
+    </row>
+    <row r="4536">
+      <c r="A4536" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4536" t="s">
+        <v>8417</v>
+      </c>
+      <c r="C4536" t="s">
+        <v>701</v>
+      </c>
+      <c r="D4536" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="4537">
+      <c r="A4537" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4537" t="s">
+        <v>8418</v>
+      </c>
+      <c r="C4537" t="s">
+        <v>725</v>
+      </c>
+      <c r="D4537" t="s">
+        <v>8419</v>
+      </c>
+    </row>
+    <row r="4538">
+      <c r="A4538" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4538" t="s">
+        <v>8420</v>
+      </c>
+      <c r="C4538" t="s">
+        <v>725</v>
+      </c>
+      <c r="D4538" t="s">
+        <v>8421</v>
+      </c>
+    </row>
+    <row r="4539">
+      <c r="A4539" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4539" t="s">
+        <v>8422</v>
+      </c>
+      <c r="C4539" t="s">
+        <v>701</v>
+      </c>
+      <c r="D4539" t="s">
+        <v>7732</v>
+      </c>
+    </row>
+    <row r="4540">
+      <c r="A4540" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4540" t="s">
+        <v>8423</v>
+      </c>
+      <c r="C4540" t="s">
+        <v>698</v>
+      </c>
+      <c r="D4540" t="s">
+        <v>8424</v>
+      </c>
+    </row>
+    <row r="4541">
+      <c r="A4541" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4541" t="s">
+        <v>8425</v>
+      </c>
+      <c r="C4541" t="s">
+        <v>701</v>
+      </c>
+      <c r="D4541" t="s">
+        <v>8426</v>
+      </c>
+    </row>
+    <row r="4542">
+      <c r="A4542" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4542" t="s">
+        <v>8427</v>
+      </c>
+      <c r="C4542" t="s">
+        <v>701</v>
+      </c>
+      <c r="D4542" t="s">
+        <v>8428</v>
+      </c>
+    </row>
+    <row r="4543">
+      <c r="A4543" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4543" t="s">
+        <v>8429</v>
+      </c>
+      <c r="C4543" t="s">
+        <v>731</v>
+      </c>
+      <c r="D4543" t="s">
+        <v>8430</v>
+      </c>
+    </row>
+    <row r="4544">
+      <c r="A4544" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4544" t="s">
+        <v>8431</v>
+      </c>
+      <c r="C4544" t="s">
+        <v>816</v>
+      </c>
+      <c r="D4544" t="s">
+        <v>8432</v>
+      </c>
+    </row>
+    <row r="4545">
+      <c r="A4545" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4545" t="s">
+        <v>8433</v>
+      </c>
+      <c r="C4545" t="s">
+        <v>821</v>
+      </c>
+      <c r="D4545" t="s">
+        <v>8434</v>
+      </c>
+    </row>
+    <row r="4546">
+      <c r="A4546" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4546" t="s">
+        <v>8435</v>
+      </c>
+      <c r="C4546" t="s">
+        <v>819</v>
+      </c>
+      <c r="D4546" t="s">
+        <v>8436</v>
+      </c>
+    </row>
+    <row r="4547">
+      <c r="A4547" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4547" t="s">
+        <v>8437</v>
+      </c>
+      <c r="C4547" t="s">
+        <v>7292</v>
+      </c>
+      <c r="D4547" t="s">
+        <v>8438</v>
+      </c>
+    </row>
+    <row r="4548">
+      <c r="A4548" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4548" t="s">
+        <v>8439</v>
+      </c>
+      <c r="C4548" t="s">
+        <v>712</v>
+      </c>
+      <c r="D4548" t="s">
+        <v>7769</v>
+      </c>
+    </row>
+    <row r="4549">
+      <c r="A4549" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4549" t="s">
+        <v>8440</v>
+      </c>
+      <c r="C4549" t="s">
+        <v>795</v>
+      </c>
+      <c r="D4549" t="s">
+        <v>8441</v>
+      </c>
+    </row>
+    <row r="4550">
+      <c r="A4550" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4550" t="s">
+        <v>8442</v>
+      </c>
+      <c r="C4550" t="s">
+        <v>741</v>
+      </c>
+      <c r="D4550" t="s">
+        <v>8443</v>
+      </c>
+    </row>
+    <row r="4551">
+      <c r="A4551" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4551" t="s">
+        <v>8444</v>
+      </c>
+      <c r="C4551" t="s">
+        <v>684</v>
+      </c>
+      <c r="D4551" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="4552">
+      <c r="A4552" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4552" t="s">
+        <v>8445</v>
+      </c>
+      <c r="C4552" t="s">
+        <v>7886</v>
+      </c>
+      <c r="D4552" t="s">
+        <v>8446</v>
+      </c>
+    </row>
+    <row r="4553">
+      <c r="A4553" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4553" t="s">
+        <v>8447</v>
+      </c>
+      <c r="C4553" t="s">
+        <v>741</v>
+      </c>
+      <c r="D4553" t="s">
+        <v>8347</v>
+      </c>
+    </row>
+    <row r="4554">
+      <c r="A4554" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4554" t="s">
+        <v>8448</v>
+      </c>
+      <c r="C4554" t="s">
+        <v>687</v>
+      </c>
+      <c r="D4554" t="s">
+        <v>8449</v>
+      </c>
+    </row>
+    <row r="4555">
+      <c r="A4555" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4555" t="s">
+        <v>8450</v>
+      </c>
+      <c r="C4555" t="s">
+        <v>795</v>
+      </c>
+      <c r="D4555" t="s">
+        <v>8451</v>
+      </c>
+    </row>
+    <row r="4556">
+      <c r="A4556" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4556" t="s">
+        <v>8452</v>
+      </c>
+      <c r="C4556" t="s">
+        <v>693</v>
+      </c>
+      <c r="D4556" t="s">
+        <v>6101</v>
+      </c>
+    </row>
+    <row r="4557">
+      <c r="A4557" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4557" t="s">
+        <v>8453</v>
+      </c>
+      <c r="C4557" t="s">
+        <v>693</v>
+      </c>
+      <c r="D4557" t="s">
+        <v>8454</v>
+      </c>
+    </row>
+    <row r="4558">
+      <c r="A4558" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4558" t="s">
+        <v>8455</v>
+      </c>
+      <c r="C4558" t="s">
+        <v>795</v>
+      </c>
+      <c r="D4558" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="4559">
+      <c r="A4559" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4559" t="s">
+        <v>8456</v>
+      </c>
+      <c r="C4559" t="s">
+        <v>741</v>
+      </c>
+      <c r="D4559" t="s">
+        <v>8457</v>
+      </c>
+    </row>
+    <row r="4560">
+      <c r="A4560" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4560" t="s">
+        <v>8458</v>
+      </c>
+      <c r="C4560" t="s">
+        <v>7914</v>
+      </c>
+      <c r="D4560" t="s">
+        <v>8459</v>
+      </c>
+    </row>
+    <row r="4561">
+      <c r="A4561" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4561" t="s">
+        <v>8460</v>
+      </c>
+      <c r="C4561" t="s">
+        <v>744</v>
+      </c>
+      <c r="D4561" t="s">
+        <v>8461</v>
+      </c>
+    </row>
+    <row r="4562">
+      <c r="A4562" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4562" t="s">
+        <v>8462</v>
+      </c>
+      <c r="C4562" t="s">
+        <v>763</v>
+      </c>
+      <c r="D4562" t="s">
+        <v>8463</v>
+      </c>
+    </row>
+    <row r="4563">
+      <c r="A4563" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4563" t="s">
+        <v>8464</v>
+      </c>
+      <c r="C4563" t="s">
+        <v>678</v>
+      </c>
+      <c r="D4563" t="s">
+        <v>8465</v>
+      </c>
+    </row>
+    <row r="4564">
+      <c r="A4564" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4564" t="s">
+        <v>8466</v>
+      </c>
+      <c r="C4564" t="s">
+        <v>7914</v>
+      </c>
+      <c r="D4564" t="s">
+        <v>8467</v>
+      </c>
+    </row>
+    <row r="4565">
+      <c r="A4565" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4565" t="s">
+        <v>8468</v>
+      </c>
+      <c r="C4565" t="s">
+        <v>684</v>
+      </c>
+      <c r="D4565" t="s">
+        <v>8469</v>
+      </c>
+    </row>
+    <row r="4566">
+      <c r="A4566" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4566" t="s">
+        <v>8470</v>
+      </c>
+      <c r="C4566" t="s">
+        <v>7890</v>
+      </c>
+      <c r="D4566" t="s">
+        <v>4812</v>
+      </c>
+    </row>
+    <row r="4567">
+      <c r="A4567" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4567" t="s">
+        <v>8471</v>
+      </c>
+      <c r="C4567" t="s">
+        <v>7893</v>
+      </c>
+      <c r="D4567" t="s">
+        <v>8472</v>
+      </c>
+    </row>
+    <row r="4568">
+      <c r="A4568" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4568" t="s">
+        <v>8473</v>
+      </c>
+      <c r="C4568" t="s">
+        <v>687</v>
+      </c>
+      <c r="D4568" t="s">
+        <v>8474</v>
+      </c>
+    </row>
+    <row r="4569">
+      <c r="A4569" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4569" t="s">
+        <v>8475</v>
+      </c>
+      <c r="C4569" t="s">
+        <v>684</v>
+      </c>
+      <c r="D4569" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="4570">
+      <c r="A4570" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4570" t="s">
+        <v>8476</v>
+      </c>
+      <c r="C4570" t="s">
+        <v>780</v>
+      </c>
+      <c r="D4570" t="s">
+        <v>8477</v>
+      </c>
+    </row>
+    <row r="4571">
+      <c r="A4571" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4571" t="s">
+        <v>8478</v>
+      </c>
+      <c r="C4571" t="s">
+        <v>747</v>
+      </c>
+      <c r="D4571" t="s">
+        <v>8479</v>
+      </c>
+    </row>
+    <row r="4572">
+      <c r="A4572" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4572" t="s">
+        <v>8480</v>
+      </c>
+      <c r="C4572" t="s">
+        <v>747</v>
+      </c>
+      <c r="D4572" t="s">
+        <v>8481</v>
+      </c>
+    </row>
+    <row r="4573">
+      <c r="A4573" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4573" t="s">
+        <v>8482</v>
+      </c>
+      <c r="C4573" t="s">
+        <v>675</v>
+      </c>
+      <c r="D4573" t="s">
+        <v>7040</v>
+      </c>
+    </row>
+    <row r="4574">
+      <c r="A4574" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4574" t="s">
+        <v>8483</v>
+      </c>
+      <c r="C4574" t="s">
+        <v>785</v>
+      </c>
+      <c r="D4574" t="s">
+        <v>8484</v>
+      </c>
+    </row>
+    <row r="4575">
+      <c r="A4575" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4575" t="s">
+        <v>8485</v>
+      </c>
+      <c r="C4575" t="s">
+        <v>7886</v>
+      </c>
+      <c r="D4575" t="s">
+        <v>8486</v>
+      </c>
+    </row>
+    <row r="4576">
+      <c r="A4576" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4576" t="s">
+        <v>8487</v>
+      </c>
+      <c r="C4576" t="s">
+        <v>792</v>
+      </c>
+      <c r="D4576" t="s">
+        <v>7788</v>
+      </c>
+    </row>
+    <row r="4577">
+      <c r="A4577" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4577" t="s">
+        <v>8488</v>
+      </c>
+      <c r="C4577" t="s">
+        <v>792</v>
+      </c>
+      <c r="D4577" t="s">
+        <v>8489</v>
+      </c>
+    </row>
+    <row r="4578">
+      <c r="A4578" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4578" t="s">
+        <v>8490</v>
+      </c>
+      <c r="C4578" t="s">
+        <v>678</v>
+      </c>
+      <c r="D4578" t="s">
+        <v>8491</v>
+      </c>
+    </row>
+    <row r="4579">
+      <c r="A4579" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4579" t="s">
+        <v>8492</v>
+      </c>
+      <c r="C4579" t="s">
+        <v>773</v>
+      </c>
+      <c r="D4579" t="s">
+        <v>8493</v>
+      </c>
+    </row>
+    <row r="4580">
+      <c r="A4580" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4580" t="s">
+        <v>8494</v>
+      </c>
+      <c r="C4580" t="s">
+        <v>7951</v>
+      </c>
+      <c r="D4580" t="s">
+        <v>8495</v>
+      </c>
+    </row>
+    <row r="4581">
+      <c r="A4581" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4581" t="s">
+        <v>8496</v>
+      </c>
+      <c r="C4581" t="s">
+        <v>8035</v>
+      </c>
+      <c r="D4581" t="s">
+        <v>8497</v>
+      </c>
+    </row>
+    <row r="4582">
+      <c r="A4582" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4582" t="s">
+        <v>8498</v>
+      </c>
+      <c r="C4582" t="s">
+        <v>7951</v>
+      </c>
+      <c r="D4582" t="s">
+        <v>8499</v>
+      </c>
+    </row>
+    <row r="4583">
+      <c r="A4583" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4583" t="s">
+        <v>8500</v>
+      </c>
+      <c r="C4583" t="s">
+        <v>7951</v>
+      </c>
+      <c r="D4583" t="s">
+        <v>8501</v>
+      </c>
+    </row>
+    <row r="4584">
+      <c r="A4584" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4584" t="s">
+        <v>8502</v>
+      </c>
+      <c r="C4584" t="s">
+        <v>664</v>
+      </c>
+      <c r="D4584" t="s">
+        <v>4439</v>
+      </c>
+    </row>
+    <row r="4585">
+      <c r="A4585" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4585" t="s">
+        <v>8503</v>
+      </c>
+      <c r="C4585" t="s">
+        <v>666</v>
+      </c>
+      <c r="D4585" t="s">
+        <v>8504</v>
+      </c>
+    </row>
+    <row r="4586">
+      <c r="A4586" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4586" t="s">
+        <v>8505</v>
+      </c>
+      <c r="C4586" t="s">
+        <v>7943</v>
+      </c>
+      <c r="D4586" t="s">
+        <v>8506</v>
+      </c>
+    </row>
+    <row r="4587">
+      <c r="A4587" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4587" t="s">
+        <v>8507</v>
+      </c>
+      <c r="C4587" t="s">
+        <v>7961</v>
+      </c>
+      <c r="D4587" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="4588">
+      <c r="A4588" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4588" t="s">
+        <v>8508</v>
+      </c>
+      <c r="C4588" t="s">
+        <v>7951</v>
+      </c>
+      <c r="D4588" t="s">
+        <v>8509</v>
+      </c>
+    </row>
+    <row r="4589">
+      <c r="A4589" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4589" t="s">
+        <v>8510</v>
+      </c>
+      <c r="C4589" t="s">
+        <v>655</v>
+      </c>
+      <c r="D4589" t="s">
+        <v>8511</v>
+      </c>
+    </row>
+    <row r="4590">
+      <c r="A4590" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4590" t="s">
+        <v>8512</v>
+      </c>
+      <c r="C4590" t="s">
+        <v>650</v>
+      </c>
+      <c r="D4590" t="s">
+        <v>8513</v>
+      </c>
+    </row>
+    <row r="4591">
+      <c r="A4591" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4591" t="s">
+        <v>8514</v>
+      </c>
+      <c r="C4591" t="s">
+        <v>647</v>
+      </c>
+      <c r="D4591" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="4592">
+      <c r="A4592" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4592" t="s">
+        <v>8515</v>
+      </c>
+      <c r="C4592" t="s">
+        <v>8127</v>
+      </c>
+      <c r="D4592" t="s">
+        <v>8516</v>
+      </c>
+    </row>
+    <row r="4593">
+      <c r="A4593" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4593" t="s">
+        <v>8517</v>
+      </c>
+      <c r="C4593" t="s">
+        <v>647</v>
+      </c>
+      <c r="D4593" t="s">
+        <v>7865</v>
+      </c>
+    </row>
+    <row r="4594">
+      <c r="A4594" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4594" t="s">
+        <v>8518</v>
+      </c>
+      <c r="C4594" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4594" t="s">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="4595">
+      <c r="A4595" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4595" t="s">
+        <v>8520</v>
+      </c>
+      <c r="C4595" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4595" t="s">
+        <v>8477</v>
+      </c>
+    </row>
+    <row r="4596">
+      <c r="A4596" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4596" t="s">
+        <v>8521</v>
+      </c>
+      <c r="C4596" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4596" t="s">
+        <v>8522</v>
+      </c>
+    </row>
+    <row r="4597">
+      <c r="A4597" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4597" t="s">
+        <v>8523</v>
+      </c>
+      <c r="C4597" t="s">
+        <v>655</v>
+      </c>
+      <c r="D4597" t="s">
+        <v>8524</v>
+      </c>
+    </row>
+    <row r="4598">
+      <c r="A4598" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4598" t="s">
+        <v>8525</v>
+      </c>
+      <c r="C4598" t="s">
+        <v>8080</v>
+      </c>
+      <c r="D4598" t="s">
+        <v>8526</v>
+      </c>
+    </row>
+    <row r="4599">
+      <c r="A4599" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4599" t="s">
+        <v>8527</v>
+      </c>
+      <c r="C4599" t="s">
+        <v>655</v>
+      </c>
+      <c r="D4599" t="s">
+        <v>8528</v>
+      </c>
+    </row>
+    <row r="4600">
+      <c r="A4600" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4600" t="s">
+        <v>8529</v>
+      </c>
+      <c r="C4600" t="s">
+        <v>8091</v>
+      </c>
+      <c r="D4600" t="s">
+        <v>8530</v>
+      </c>
+    </row>
+    <row r="4601">
+      <c r="A4601" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4601" t="s">
+        <v>8531</v>
+      </c>
+      <c r="C4601" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4601" t="s">
+        <v>8532</v>
+      </c>
+    </row>
+    <row r="4602">
+      <c r="A4602" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4602" t="s">
+        <v>8533</v>
+      </c>
+      <c r="C4602" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4602" t="s">
+        <v>7221</v>
+      </c>
+    </row>
+    <row r="4603">
+      <c r="A4603" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4603" t="s">
+        <v>8534</v>
+      </c>
+      <c r="C4603" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4603" t="s">
+        <v>8535</v>
+      </c>
+    </row>
+    <row r="4604">
+      <c r="A4604" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4604" t="s">
+        <v>8536</v>
+      </c>
+      <c r="C4604" t="s">
+        <v>8088</v>
+      </c>
+      <c r="D4604" t="s">
+        <v>6038</v>
+      </c>
+    </row>
+    <row r="4605">
+      <c r="A4605" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4605" t="s">
+        <v>8537</v>
+      </c>
+      <c r="C4605" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4605" t="s">
+        <v>8538</v>
+      </c>
+    </row>
+    <row r="4606">
+      <c r="A4606" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4606" t="s">
+        <v>8539</v>
+      </c>
+      <c r="C4606" t="s">
+        <v>8035</v>
+      </c>
+      <c r="D4606" t="s">
+        <v>8540</v>
+      </c>
+    </row>
+    <row r="4607">
+      <c r="A4607" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4607" t="s">
+        <v>8541</v>
+      </c>
+      <c r="C4607" t="s">
+        <v>658</v>
+      </c>
+      <c r="D4607" t="s">
+        <v>8542</v>
+      </c>
+    </row>
+    <row r="4608">
+      <c r="A4608" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4608" t="s">
+        <v>8543</v>
+      </c>
+      <c r="C4608" t="s">
+        <v>7946</v>
+      </c>
+      <c r="D4608" t="s">
+        <v>5306</v>
+      </c>
+    </row>
+    <row r="4609">
+      <c r="A4609" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4609" t="s">
+        <v>8544</v>
+      </c>
+      <c r="C4609" t="s">
+        <v>7961</v>
+      </c>
+      <c r="D4609" t="s">
+        <v>7331</v>
+      </c>
+    </row>
+    <row r="4610">
+      <c r="A4610" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4610" t="s">
+        <v>8545</v>
+      </c>
+      <c r="C4610" t="s">
+        <v>7946</v>
+      </c>
+      <c r="D4610" t="s">
+        <v>8546</v>
+      </c>
+    </row>
+    <row r="4611">
+      <c r="A4611" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4611" t="s">
+        <v>8547</v>
+      </c>
+      <c r="C4611" t="s">
+        <v>8024</v>
+      </c>
+      <c r="D4611" t="s">
+        <v>8548</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
